--- a/teaching/traditional_assets/database/data/morocco/morocco_real_estate_operations_services.xlsx
+++ b/teaching/traditional_assets/database/data/morocco/morocco_real_estate_operations_services.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="cbse_imo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -590,119 +592,113 @@
           <t>Real Estate (Operations &amp; Services)</t>
         </is>
       </c>
-      <c r="D2">
-        <v>0.0604</v>
-      </c>
-      <c r="E2">
-        <v>0.0536</v>
-      </c>
       <c r="G2">
-        <v>0.003451022033448367</v>
+        <v>0.3901408450704226</v>
       </c>
       <c r="H2">
-        <v>0.003451022033448367</v>
+        <v>0.3901408450704226</v>
       </c>
       <c r="I2">
-        <v>0.003893460755685337</v>
+        <v>0.1094366197183099</v>
       </c>
       <c r="J2">
-        <v>0.002533143865456987</v>
+        <v>0.05471830985915493</v>
       </c>
       <c r="K2">
-        <v>12.03</v>
+        <v>0.13</v>
       </c>
       <c r="L2">
-        <v>0.03548358552340501</v>
+        <v>0.01830985915492958</v>
       </c>
       <c r="M2">
-        <v>10.3526</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.05725995575221239</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8605652535328344</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>10.2936</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.05693362831858406</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.8556608478802989</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05900000000000016</v>
-      </c>
-      <c r="T2">
-        <v>0.005699051446013579</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>7.776</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>0.04300884955752213</v>
+        <v>0.01894736842105263</v>
       </c>
       <c r="W2">
-        <v>0.073941015673745</v>
+        <v>0.002838427947598253</v>
       </c>
       <c r="X2">
-        <v>0.1760370313222037</v>
+        <v>0.04787908754796379</v>
       </c>
       <c r="Y2">
-        <v>-0.1020960156484587</v>
+        <v>-0.04504065960036553</v>
       </c>
       <c r="Z2">
-        <v>0.2683286267855334</v>
+        <v>0.1302035576746745</v>
       </c>
       <c r="AA2">
-        <v>0.007491066283481877</v>
+        <v>0.007124518613607189</v>
       </c>
       <c r="AB2">
-        <v>0.06256186990544502</v>
+        <v>0.04759942634283212</v>
       </c>
       <c r="AC2">
-        <v>-0.05507080362196315</v>
+        <v>-0.04047490772922493</v>
       </c>
       <c r="AD2">
-        <v>1144.6</v>
+        <v>1.39</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1144.6</v>
+        <v>1.39</v>
       </c>
       <c r="AG2">
-        <v>1136.824</v>
+        <v>-0.4100000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.8635883506865852</v>
+        <v>0.01442058304803403</v>
       </c>
       <c r="AI2">
-        <v>0.8931023720349563</v>
+        <v>0.01625921160369634</v>
       </c>
       <c r="AJ2">
-        <v>0.8627833129936917</v>
+        <v>-0.004334496246960568</v>
       </c>
       <c r="AK2">
-        <v>0.8924498203833496</v>
+        <v>-0.0048990321424304</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.648</v>
       </c>
       <c r="AM2">
-        <v>-0.079</v>
+        <v>0.648</v>
       </c>
       <c r="AN2">
-        <v>542.4644549763033</v>
+        <v>0.4199395770392749</v>
+      </c>
+      <c r="AO2">
+        <v>1.199074074074074</v>
       </c>
       <c r="AP2">
-        <v>538.7791469194312</v>
+        <v>-0.1238670694864049</v>
       </c>
       <c r="AQ2">
-        <v>-16.70886075949367</v>
+        <v>1.199074074074074</v>
       </c>
     </row>
     <row r="3">
@@ -722,233 +718,8829 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.3622291021671826</v>
+        <v>0.3901408450704226</v>
       </c>
       <c r="H3">
-        <v>0.3622291021671826</v>
+        <v>0.3901408450704226</v>
       </c>
       <c r="I3">
-        <v>0.4086687306501548</v>
+        <v>0.1094366197183099</v>
       </c>
       <c r="J3">
-        <v>0.2964050264068476</v>
+        <v>0.05471830985915493</v>
       </c>
       <c r="K3">
-        <v>1.23</v>
+        <v>0.13</v>
       </c>
       <c r="L3">
-        <v>0.3808049535603715</v>
+        <v>0.01830985915492958</v>
       </c>
       <c r="M3">
-        <v>3.149</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.05986692015209125</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>2.560162601626016</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>3.09</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.05874524714828897</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>2.51219512195122</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>0.05900000000000016</v>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1.8</v>
+      </c>
+      <c r="V3">
+        <v>0.01894736842105263</v>
+      </c>
+      <c r="W3">
+        <v>0.002838427947598253</v>
+      </c>
+      <c r="X3">
+        <v>0.04787908754796379</v>
+      </c>
+      <c r="Y3">
+        <v>-0.04504065960036553</v>
+      </c>
+      <c r="Z3">
+        <v>0.1302035576746745</v>
+      </c>
+      <c r="AA3">
+        <v>0.007124518613607189</v>
+      </c>
+      <c r="AB3">
+        <v>0.04759942634283212</v>
+      </c>
+      <c r="AC3">
+        <v>-0.04047490772922493</v>
+      </c>
+      <c r="AD3">
+        <v>1.39</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>1.39</v>
+      </c>
+      <c r="AG3">
+        <v>-0.4100000000000001</v>
+      </c>
+      <c r="AH3">
+        <v>0.01442058304803403</v>
+      </c>
+      <c r="AI3">
+        <v>0.01625921160369634</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.004334496246960568</v>
+      </c>
+      <c r="AK3">
+        <v>-0.0048990321424304</v>
+      </c>
+      <c r="AL3">
+        <v>0.648</v>
+      </c>
+      <c r="AM3">
+        <v>0.648</v>
+      </c>
+      <c r="AN3">
+        <v>0.4199395770392749</v>
+      </c>
+      <c r="AO3">
+        <v>1.199074074074074</v>
+      </c>
+      <c r="AP3">
+        <v>-0.1238670694864049</v>
+      </c>
+      <c r="AQ3">
+        <v>1.199074074074074</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Immorente Invest S.A. (CBSE:IMO)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CBSE:IMO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Real Estate (Operations &amp; Services)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.014420583048034</v>
+      </c>
+      <c r="F2">
+        <v>0.05</v>
+      </c>
+      <c r="G2">
+        <v>95</v>
+      </c>
+      <c r="H2">
+        <v>92.5265521802216</v>
+      </c>
+      <c r="I2">
+        <v>94.59</v>
+      </c>
+      <c r="J2">
+        <v>95.54605218022159</v>
+      </c>
+      <c r="K2">
+        <v>1.39</v>
+      </c>
+      <c r="L2">
+        <v>4.8195</v>
+      </c>
+      <c r="M2">
+        <v>0.0475994263428321</v>
+      </c>
+      <c r="N2">
+        <v>0.0472161949144186</v>
+      </c>
+      <c r="O2">
+        <v>0.0284858907403079</v>
+      </c>
+      <c r="P2">
+        <v>0.015594</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0478790875479638</v>
+      </c>
+      <c r="T2">
+        <v>0.0488805209625459</v>
+      </c>
+      <c r="U2">
+        <v>0.540306253710757</v>
+      </c>
+      <c r="V2">
+        <v>0.554331487871646</v>
+      </c>
+      <c r="W2">
+        <v>4.682305567261322</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>95</v>
+      </c>
+      <c r="AB2">
+        <v>0.07140225989058496</v>
+      </c>
+      <c r="AC2">
+        <v>0.04128389962363468</v>
+      </c>
+      <c r="AD2">
+        <v>0.31</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>3.31</v>
+      </c>
+      <c r="AH2">
+        <v>2.8</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>1.39</v>
+      </c>
+      <c r="AK2">
+        <v>1.39</v>
+      </c>
+      <c r="AL2">
+        <v>0.648</v>
+      </c>
+      <c r="AM2">
+        <v>1.39</v>
+      </c>
+      <c r="AN2">
+        <v>1.8</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.047493494072543</v>
+      </c>
+      <c r="C2">
+        <v>96.65235184001799</v>
+      </c>
+      <c r="D2">
+        <v>94.85235184001799</v>
+      </c>
+      <c r="E2">
+        <v>-1.39</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1.8</v>
+      </c>
+      <c r="H2">
+        <v>95</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>3.31</v>
+      </c>
+      <c r="K2">
+        <v>2.8</v>
+      </c>
+      <c r="L2">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="O2">
+        <v>0.1581000000000001</v>
+      </c>
+      <c r="P2">
+        <v>0.3519000000000002</v>
+      </c>
+      <c r="Q2">
+        <v>3.1519</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.047493494072543</v>
+      </c>
+      <c r="T2">
+        <v>0.5349059557928524</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.31</v>
+      </c>
+      <c r="W2">
+        <v>0.011178</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.04739387424091811</v>
+      </c>
+      <c r="C3">
+        <v>95.93650157262771</v>
+      </c>
+      <c r="D3">
+        <v>95.1004015726277</v>
+      </c>
+      <c r="E3">
+        <v>-0.4260999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.9639</v>
+      </c>
+      <c r="G3">
+        <v>1.8</v>
+      </c>
+      <c r="H3">
+        <v>95</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3.31</v>
+      </c>
+      <c r="K3">
+        <v>2.8</v>
+      </c>
+      <c r="L3">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M3">
+        <v>0.01561518</v>
+      </c>
+      <c r="N3">
+        <v>0.4943848200000002</v>
+      </c>
+      <c r="O3">
+        <v>0.1532592942000001</v>
+      </c>
+      <c r="P3">
+        <v>0.3411255258000002</v>
+      </c>
+      <c r="Q3">
+        <v>3.1411255258</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.04775969115244254</v>
       </c>
       <c r="T3">
-        <v>0.01873610670053991</v>
+        <v>0.5386340882120147</v>
       </c>
       <c r="U3">
-        <v>7.77</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
-        <v>0.1477186311787072</v>
+        <v>0.31</v>
       </c>
       <c r="W3">
-        <v>0.02557172557172557</v>
-      </c>
-      <c r="X3">
-        <v>0.0652378366086004</v>
+        <v>0.011178</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y3">
-        <v>-0.03966611103687483</v>
+        <v>32.66052648768699</v>
       </c>
       <c r="Z3">
-        <v>0.05054614879033521</v>
-      </c>
-      <c r="AA3">
-        <v>0.01498213256696375</v>
-      </c>
-      <c r="AB3">
-        <v>0.05936346332068243</v>
-      </c>
-      <c r="AC3">
-        <v>-0.04438133075371867</v>
-      </c>
-      <c r="AD3">
-        <v>16.5</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>16.5</v>
-      </c>
-      <c r="AG3">
-        <v>8.73</v>
-      </c>
-      <c r="AH3">
-        <v>0.2387843704775688</v>
-      </c>
-      <c r="AI3">
-        <v>0.2648475120385233</v>
-      </c>
-      <c r="AJ3">
-        <v>0.1423446926463395</v>
-      </c>
-      <c r="AK3">
-        <v>0.1600953603520998</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>-0.079</v>
-      </c>
-      <c r="AN3">
-        <v>7.819905213270142</v>
-      </c>
-      <c r="AP3">
-        <v>4.137440758293839</v>
-      </c>
-      <c r="AQ3">
-        <v>-16.70886075949367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Morocco</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Société Maghrebine de Crédit-bail (CBSE:MAB)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Real Estate (Operations &amp; Services)</t>
-        </is>
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.04729425440929323</v>
+      </c>
+      <c r="C4">
+        <v>95.22195206362734</v>
       </c>
       <c r="D4">
-        <v>0.0604</v>
+        <v>95.34975206362735</v>
       </c>
       <c r="E4">
-        <v>0.0536</v>
+        <v>0.5378000000000001</v>
+      </c>
+      <c r="F4">
+        <v>1.9278</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="K4">
-        <v>10.8</v>
+        <v>2.8</v>
       </c>
       <c r="L4">
-        <v>0.03216200119118523</v>
+        <v>0.5100000000000002</v>
       </c>
       <c r="M4">
-        <v>7.203599999999999</v>
+        <v>0.03123036</v>
       </c>
       <c r="N4">
-        <v>0.05619032761310452</v>
+        <v>0.4787696400000002</v>
       </c>
       <c r="O4">
-        <v>0.6669999999999998</v>
+        <v>0.1484185884000001</v>
       </c>
       <c r="P4">
-        <v>7.203599999999999</v>
+        <v>0.3303510516000001</v>
       </c>
       <c r="Q4">
-        <v>0.05619032761310452</v>
+        <v>3.1303510516</v>
       </c>
       <c r="R4">
-        <v>0.6669999999999998</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.04803132082580942</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.542438304966262</v>
       </c>
       <c r="U4">
-        <v>0.006</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
-        <v>4.6801872074883e-05</v>
+        <v>0.31</v>
       </c>
       <c r="W4">
-        <v>0.1223103057757644</v>
-      </c>
-      <c r="X4">
-        <v>0.286836226035807</v>
+        <v>0.011178</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
       </c>
       <c r="Y4">
-        <v>-0.1645259202600425</v>
+        <v>16.3302632438435</v>
       </c>
       <c r="Z4">
-        <v>0.2799299091519908</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0.06576027649020762</v>
-      </c>
-      <c r="AC4">
-        <v>-0.06576027649020762</v>
-      </c>
-      <c r="AD4">
-        <v>1128.1</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>1128.1</v>
-      </c>
-      <c r="AG4">
-        <v>1128.094</v>
-      </c>
-      <c r="AH4">
-        <v>0.8979543102762079</v>
-      </c>
-      <c r="AI4">
-        <v>0.9252029853194456</v>
-      </c>
-      <c r="AJ4">
-        <v>0.8979538229108791</v>
-      </c>
-      <c r="AK4">
-        <v>0.9252026172522787</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.04727329457766834</v>
+      </c>
+      <c r="C5">
+        <v>94.31068154365946</v>
+      </c>
+      <c r="D5">
+        <v>95.40238154365946</v>
+      </c>
+      <c r="E5">
+        <v>1.5017</v>
+      </c>
+      <c r="F5">
+        <v>2.8917</v>
+      </c>
+      <c r="G5">
+        <v>1.8</v>
+      </c>
+      <c r="H5">
+        <v>95</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>3.31</v>
+      </c>
+      <c r="K5">
+        <v>2.8</v>
+      </c>
+      <c r="L5">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M5">
+        <v>0.05783399999999998</v>
+      </c>
+      <c r="N5">
+        <v>0.4521660000000002</v>
+      </c>
+      <c r="O5">
+        <v>0.1401714600000001</v>
+      </c>
+      <c r="P5">
+        <v>0.3119945400000002</v>
+      </c>
+      <c r="Q5">
+        <v>3.11199454</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.0483085511109983</v>
+      </c>
+      <c r="T5">
+        <v>0.5463209591793596</v>
+      </c>
+      <c r="U5">
+        <v>0.02</v>
+      </c>
+      <c r="V5">
+        <v>0.31</v>
+      </c>
+      <c r="W5">
+        <v>0.0138</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>8.818342151675491</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.04727165474604347</v>
+      </c>
+      <c r="C6">
+        <v>93.35090156011358</v>
+      </c>
+      <c r="D6">
+        <v>95.40650156011358</v>
+      </c>
+      <c r="E6">
+        <v>2.4656</v>
+      </c>
+      <c r="F6">
+        <v>3.8556</v>
+      </c>
+      <c r="G6">
+        <v>1.8</v>
+      </c>
+      <c r="H6">
+        <v>95</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>3.31</v>
+      </c>
+      <c r="K6">
+        <v>2.8</v>
+      </c>
+      <c r="L6">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M6">
+        <v>0.08713655999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.4228634400000003</v>
+      </c>
+      <c r="O6">
+        <v>0.1310876664000001</v>
+      </c>
+      <c r="P6">
+        <v>0.2917757736000002</v>
+      </c>
+      <c r="Q6">
+        <v>3.0917757736</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.04859155702712861</v>
+      </c>
+      <c r="T6">
+        <v>0.5502845020218969</v>
+      </c>
+      <c r="U6">
+        <v>0.0226</v>
+      </c>
+      <c r="V6">
+        <v>0.31</v>
+      </c>
+      <c r="W6">
+        <v>0.015594</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>5.852881959076653</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.04721619491441859</v>
+      </c>
+      <c r="C7">
+        <v>92.52655218022156</v>
+      </c>
+      <c r="D7">
+        <v>95.54605218022157</v>
+      </c>
+      <c r="E7">
+        <v>3.429500000000001</v>
+      </c>
+      <c r="F7">
+        <v>4.819500000000001</v>
+      </c>
+      <c r="G7">
+        <v>1.8</v>
+      </c>
+      <c r="H7">
+        <v>95</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>3.31</v>
+      </c>
+      <c r="K7">
+        <v>2.8</v>
+      </c>
+      <c r="L7">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M7">
+        <v>0.1089207</v>
+      </c>
+      <c r="N7">
+        <v>0.4010793000000002</v>
+      </c>
+      <c r="O7">
+        <v>0.1243345830000001</v>
+      </c>
+      <c r="P7">
+        <v>0.2767447170000001</v>
+      </c>
+      <c r="Q7">
+        <v>3.076744717</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.04888052096254589</v>
+      </c>
+      <c r="T7">
+        <v>0.5543314878716455</v>
+      </c>
+      <c r="U7">
+        <v>0.0226</v>
+      </c>
+      <c r="V7">
+        <v>0.31</v>
+      </c>
+      <c r="W7">
+        <v>0.015594</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>4.682305567261322</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.05126055386757777</v>
+      </c>
+      <c r="C8">
+        <v>82.35346650565695</v>
+      </c>
+      <c r="D8">
+        <v>86.33686650565696</v>
+      </c>
+      <c r="E8">
+        <v>4.3934</v>
+      </c>
+      <c r="F8">
+        <v>5.783399999999999</v>
+      </c>
+      <c r="G8">
+        <v>1.8</v>
+      </c>
+      <c r="H8">
+        <v>95</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>3.31</v>
+      </c>
+      <c r="K8">
+        <v>2.8</v>
+      </c>
+      <c r="L8">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M8">
+        <v>0.6303905999999999</v>
+      </c>
+      <c r="N8">
+        <v>-0.1203905999999997</v>
+      </c>
+      <c r="O8">
+        <v>-0.0373210859999999</v>
+      </c>
+      <c r="P8">
+        <v>-0.08306951399999979</v>
+      </c>
+      <c r="Q8">
+        <v>2.716930486</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.04931996330615895</v>
+      </c>
+      <c r="T8">
+        <v>0.5604859477484964</v>
+      </c>
+      <c r="U8">
+        <v>0.109</v>
+      </c>
+      <c r="V8">
+        <v>0.2507968868825139</v>
+      </c>
+      <c r="W8">
+        <v>0.08166313932980598</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>0.809022215750045</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05456945351964848</v>
+      </c>
+      <c r="C9">
+        <v>75.0789087589835</v>
+      </c>
+      <c r="D9">
+        <v>80.0262087589835</v>
+      </c>
+      <c r="E9">
+        <v>5.357300000000001</v>
+      </c>
+      <c r="F9">
+        <v>6.747300000000001</v>
+      </c>
+      <c r="G9">
+        <v>1.8</v>
+      </c>
+      <c r="H9">
+        <v>95</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>3.31</v>
+      </c>
+      <c r="K9">
+        <v>2.8</v>
+      </c>
+      <c r="L9">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M9">
+        <v>0.9459714600000001</v>
+      </c>
+      <c r="N9">
+        <v>-0.4359714599999999</v>
+      </c>
+      <c r="O9">
+        <v>-0.1351511526</v>
+      </c>
+      <c r="P9">
+        <v>-0.3008203073999999</v>
+      </c>
+      <c r="Q9">
+        <v>2.4991796926</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.0498878119998496</v>
+      </c>
+      <c r="T9">
+        <v>0.5684387589698889</v>
+      </c>
+      <c r="U9">
+        <v>0.1402</v>
+      </c>
+      <c r="V9">
+        <v>0.1671297778899165</v>
+      </c>
+      <c r="W9">
+        <v>0.1167684051398337</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>0.5391283157739243</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.05946426221699037</v>
+      </c>
+      <c r="C10">
+        <v>66.30640228622451</v>
+      </c>
+      <c r="D10">
+        <v>72.21760228622452</v>
+      </c>
+      <c r="E10">
+        <v>6.3212</v>
+      </c>
+      <c r="F10">
+        <v>7.7112</v>
+      </c>
+      <c r="G10">
+        <v>1.8</v>
+      </c>
+      <c r="H10">
+        <v>95</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>3.31</v>
+      </c>
+      <c r="K10">
+        <v>2.8</v>
+      </c>
+      <c r="L10">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M10">
+        <v>1.41654744</v>
+      </c>
+      <c r="N10">
+        <v>-0.9065474399999998</v>
+      </c>
+      <c r="O10">
+        <v>-0.2810297063999999</v>
+      </c>
+      <c r="P10">
+        <v>-0.6255177335999998</v>
+      </c>
+      <c r="Q10">
+        <v>2.1744822664</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.05044399332304567</v>
+      </c>
+      <c r="T10">
+        <v>0.5762281668128388</v>
+      </c>
+      <c r="U10">
+        <v>0.1837</v>
+      </c>
+      <c r="V10">
+        <v>0.1116093930465188</v>
+      </c>
+      <c r="W10">
+        <v>0.1631973544973545</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>0.3600303001500608</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.06120826221699037</v>
+      </c>
+      <c r="C11">
+        <v>62.91615447552954</v>
+      </c>
+      <c r="D11">
+        <v>69.79125447552954</v>
+      </c>
+      <c r="E11">
+        <v>7.285100000000001</v>
+      </c>
+      <c r="F11">
+        <v>8.6751</v>
+      </c>
+      <c r="G11">
+        <v>1.8</v>
+      </c>
+      <c r="H11">
+        <v>95</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>3.31</v>
+      </c>
+      <c r="K11">
+        <v>2.8</v>
+      </c>
+      <c r="L11">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M11">
+        <v>1.59361587</v>
+      </c>
+      <c r="N11">
+        <v>-1.08361587</v>
+      </c>
+      <c r="O11">
+        <v>-0.3359209196999999</v>
+      </c>
+      <c r="P11">
+        <v>-0.7476949502999999</v>
+      </c>
+      <c r="Q11">
+        <v>2.0523050497</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.05089612511780441</v>
+      </c>
+      <c r="T11">
+        <v>0.5825603444701228</v>
+      </c>
+      <c r="U11">
+        <v>0.1837</v>
+      </c>
+      <c r="V11">
+        <v>0.09920834937468341</v>
+      </c>
+      <c r="W11">
+        <v>0.1654754262198707</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>0.3200269334667207</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.06295226221699037</v>
+      </c>
+      <c r="C12">
+        <v>59.68364654035884</v>
+      </c>
+      <c r="D12">
+        <v>67.52264654035885</v>
+      </c>
+      <c r="E12">
+        <v>8.249000000000001</v>
+      </c>
+      <c r="F12">
+        <v>9.639000000000001</v>
+      </c>
+      <c r="G12">
+        <v>1.8</v>
+      </c>
+      <c r="H12">
+        <v>95</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>3.31</v>
+      </c>
+      <c r="K12">
+        <v>2.8</v>
+      </c>
+      <c r="L12">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M12">
+        <v>1.7706843</v>
+      </c>
+      <c r="N12">
+        <v>-1.2606843</v>
+      </c>
+      <c r="O12">
+        <v>-0.390812133</v>
+      </c>
+      <c r="P12">
+        <v>-0.869872167</v>
+      </c>
+      <c r="Q12">
+        <v>1.930127833</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.05135830428578</v>
+      </c>
+      <c r="T12">
+        <v>0.5890332371864574</v>
+      </c>
+      <c r="U12">
+        <v>0.1837</v>
+      </c>
+      <c r="V12">
+        <v>0.08928751443721505</v>
+      </c>
+      <c r="W12">
+        <v>0.1672978835978836</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>0.2880242401200486</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06469626221699036</v>
+      </c>
+      <c r="C13">
+        <v>56.59398045337783</v>
+      </c>
+      <c r="D13">
+        <v>65.39688045337783</v>
+      </c>
+      <c r="E13">
+        <v>9.212899999999999</v>
+      </c>
+      <c r="F13">
+        <v>10.6029</v>
+      </c>
+      <c r="G13">
+        <v>1.8</v>
+      </c>
+      <c r="H13">
+        <v>95</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>3.31</v>
+      </c>
+      <c r="K13">
+        <v>2.8</v>
+      </c>
+      <c r="L13">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M13">
+        <v>1.94775273</v>
+      </c>
+      <c r="N13">
+        <v>-1.43775273</v>
+      </c>
+      <c r="O13">
+        <v>-0.4457033462999999</v>
+      </c>
+      <c r="P13">
+        <v>-0.9920493836999997</v>
+      </c>
+      <c r="Q13">
+        <v>1.8079506163</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.05183086950247416</v>
+      </c>
+      <c r="T13">
+        <v>0.5956515881660805</v>
+      </c>
+      <c r="U13">
+        <v>0.1837</v>
+      </c>
+      <c r="V13">
+        <v>0.08117046767019553</v>
+      </c>
+      <c r="W13">
+        <v>0.1687889850889851</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>0.2618402182909533</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.06644026221699037</v>
+      </c>
+      <c r="C14">
+        <v>53.63407702102434</v>
+      </c>
+      <c r="D14">
+        <v>63.40087702102434</v>
+      </c>
+      <c r="E14">
+        <v>10.1768</v>
+      </c>
+      <c r="F14">
+        <v>11.5668</v>
+      </c>
+      <c r="G14">
+        <v>1.8</v>
+      </c>
+      <c r="H14">
+        <v>95</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>3.31</v>
+      </c>
+      <c r="K14">
+        <v>2.8</v>
+      </c>
+      <c r="L14">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M14">
+        <v>2.12482116</v>
+      </c>
+      <c r="N14">
+        <v>-1.61482116</v>
+      </c>
+      <c r="O14">
+        <v>-0.5005945595999999</v>
+      </c>
+      <c r="P14">
+        <v>-1.1142266004</v>
+      </c>
+      <c r="Q14">
+        <v>1.6857733996</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.05231417483772956</v>
+      </c>
+      <c r="T14">
+        <v>0.6024203562134224</v>
+      </c>
+      <c r="U14">
+        <v>0.1837</v>
+      </c>
+      <c r="V14">
+        <v>0.07440626203101257</v>
+      </c>
+      <c r="W14">
+        <v>0.170031569664903</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.2400202001000405</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.06818426221699037</v>
+      </c>
+      <c r="C15">
+        <v>50.79240653767841</v>
+      </c>
+      <c r="D15">
+        <v>61.52310653767842</v>
+      </c>
+      <c r="E15">
+        <v>11.1407</v>
+      </c>
+      <c r="F15">
+        <v>12.5307</v>
+      </c>
+      <c r="G15">
+        <v>1.8</v>
+      </c>
+      <c r="H15">
+        <v>95</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>3.31</v>
+      </c>
+      <c r="K15">
+        <v>2.8</v>
+      </c>
+      <c r="L15">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M15">
+        <v>2.30188959</v>
+      </c>
+      <c r="N15">
+        <v>-1.79188959</v>
+      </c>
+      <c r="O15">
+        <v>-0.5554857728999999</v>
+      </c>
+      <c r="P15">
+        <v>-1.2364038171</v>
+      </c>
+      <c r="Q15">
+        <v>1.5635961829</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.05280859064046207</v>
+      </c>
+      <c r="T15">
+        <v>0.6093447281239215</v>
+      </c>
+      <c r="U15">
+        <v>0.1837</v>
+      </c>
+      <c r="V15">
+        <v>0.06868270341324237</v>
+      </c>
+      <c r="W15">
+        <v>0.1710829873829874</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.2215571077846528</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.06992826221699038</v>
+      </c>
+      <c r="C16">
+        <v>48.05876592697618</v>
+      </c>
+      <c r="D16">
+        <v>59.75336592697618</v>
+      </c>
+      <c r="E16">
+        <v>12.1046</v>
+      </c>
+      <c r="F16">
+        <v>13.4946</v>
+      </c>
+      <c r="G16">
+        <v>1.8</v>
+      </c>
+      <c r="H16">
+        <v>95</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>3.31</v>
+      </c>
+      <c r="K16">
+        <v>2.8</v>
+      </c>
+      <c r="L16">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M16">
+        <v>2.47895802</v>
+      </c>
+      <c r="N16">
+        <v>-1.96895802</v>
+      </c>
+      <c r="O16">
+        <v>-0.6103769862</v>
+      </c>
+      <c r="P16">
+        <v>-1.3585810338</v>
+      </c>
+      <c r="Q16">
+        <v>1.4414189662</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.05331450448511862</v>
+      </c>
+      <c r="T16">
+        <v>0.6164301319393161</v>
+      </c>
+      <c r="U16">
+        <v>0.1837</v>
+      </c>
+      <c r="V16">
+        <v>0.06377679602658219</v>
+      </c>
+      <c r="W16">
+        <v>0.1719842025699169</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.205731600085749</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.07167226221699037</v>
+      </c>
+      <c r="C17">
+        <v>45.42409327143091</v>
+      </c>
+      <c r="D17">
+        <v>58.08259327143092</v>
+      </c>
+      <c r="E17">
+        <v>13.0685</v>
+      </c>
+      <c r="F17">
+        <v>14.4585</v>
+      </c>
+      <c r="G17">
+        <v>1.8</v>
+      </c>
+      <c r="H17">
+        <v>95</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>3.31</v>
+      </c>
+      <c r="K17">
+        <v>2.8</v>
+      </c>
+      <c r="L17">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M17">
+        <v>2.65602645</v>
+      </c>
+      <c r="N17">
+        <v>-2.146026449999999</v>
+      </c>
+      <c r="O17">
+        <v>-0.6652681994999998</v>
+      </c>
+      <c r="P17">
+        <v>-1.4807582505</v>
+      </c>
+      <c r="Q17">
+        <v>1.3192417495</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.05383232218494355</v>
+      </c>
+      <c r="T17">
+        <v>0.6236822511386021</v>
+      </c>
+      <c r="U17">
+        <v>0.1837</v>
+      </c>
+      <c r="V17">
+        <v>0.05952500962481005</v>
+      </c>
+      <c r="W17">
+        <v>0.1727652557319224</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.1920161600800324</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.07341626221699037</v>
+      </c>
+      <c r="C18">
+        <v>42.8803126114736</v>
+      </c>
+      <c r="D18">
+        <v>56.5027126114736</v>
+      </c>
+      <c r="E18">
+        <v>14.0324</v>
+      </c>
+      <c r="F18">
+        <v>15.4224</v>
+      </c>
+      <c r="G18">
+        <v>1.8</v>
+      </c>
+      <c r="H18">
+        <v>95</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>3.31</v>
+      </c>
+      <c r="K18">
+        <v>2.8</v>
+      </c>
+      <c r="L18">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M18">
+        <v>2.83309488</v>
+      </c>
+      <c r="N18">
+        <v>-2.32309488</v>
+      </c>
+      <c r="O18">
+        <v>-0.7201594128</v>
+      </c>
+      <c r="P18">
+        <v>-1.6029354672</v>
+      </c>
+      <c r="Q18">
+        <v>1.1970645328</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.05436246887762143</v>
+      </c>
+      <c r="T18">
+        <v>0.6311070398426329</v>
+      </c>
+      <c r="U18">
+        <v>0.1837</v>
+      </c>
+      <c r="V18">
+        <v>0.05580469652325942</v>
+      </c>
+      <c r="W18">
+        <v>0.1734486772486773</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.1800151500750304</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.07516026221699036</v>
+      </c>
+      <c r="C19">
+        <v>40.42020340310836</v>
+      </c>
+      <c r="D19">
+        <v>55.00650340310837</v>
+      </c>
+      <c r="E19">
+        <v>14.9963</v>
+      </c>
+      <c r="F19">
+        <v>16.3863</v>
+      </c>
+      <c r="G19">
+        <v>1.8</v>
+      </c>
+      <c r="H19">
+        <v>95</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>3.31</v>
+      </c>
+      <c r="K19">
+        <v>2.8</v>
+      </c>
+      <c r="L19">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M19">
+        <v>3.01016331</v>
+      </c>
+      <c r="N19">
+        <v>-2.50016331</v>
+      </c>
+      <c r="O19">
+        <v>-0.7750506261</v>
+      </c>
+      <c r="P19">
+        <v>-1.7251126839</v>
+      </c>
+      <c r="Q19">
+        <v>1.0748873161</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.05490539018940001</v>
+      </c>
+      <c r="T19">
+        <v>0.6387107391178454</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0.05252206731600886</v>
+      </c>
+      <c r="W19">
+        <v>0.1740516962340492</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.1694260236000286</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.07690426221699039</v>
+      </c>
+      <c r="C20">
+        <v>38.03729018132199</v>
+      </c>
+      <c r="D20">
+        <v>53.587490181322</v>
+      </c>
+      <c r="E20">
+        <v>15.9602</v>
+      </c>
+      <c r="F20">
+        <v>17.3502</v>
+      </c>
+      <c r="G20">
+        <v>1.8</v>
+      </c>
+      <c r="H20">
+        <v>95</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>3.31</v>
+      </c>
+      <c r="K20">
+        <v>2.8</v>
+      </c>
+      <c r="L20">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M20">
+        <v>3.18723174</v>
+      </c>
+      <c r="N20">
+        <v>-2.67723174</v>
+      </c>
+      <c r="O20">
+        <v>-0.8299418394</v>
+      </c>
+      <c r="P20">
+        <v>-1.8472899006</v>
+      </c>
+      <c r="Q20">
+        <v>0.9527100994</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.0554615534843927</v>
+      </c>
+      <c r="T20">
+        <v>0.6464998944729412</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0.04960417468734171</v>
+      </c>
+      <c r="W20">
+        <v>0.1745877131099353</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.1600134667333604</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.07864826221699037</v>
+      </c>
+      <c r="C21">
+        <v>35.72574887224637</v>
+      </c>
+      <c r="D21">
+        <v>52.23984887224637</v>
+      </c>
+      <c r="E21">
+        <v>16.9241</v>
+      </c>
+      <c r="F21">
+        <v>18.3141</v>
+      </c>
+      <c r="G21">
+        <v>1.8</v>
+      </c>
+      <c r="H21">
+        <v>95</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>3.31</v>
+      </c>
+      <c r="K21">
+        <v>2.8</v>
+      </c>
+      <c r="L21">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M21">
+        <v>3.36430017</v>
+      </c>
+      <c r="N21">
+        <v>-2.85430017</v>
+      </c>
+      <c r="O21">
+        <v>-0.8848330526999999</v>
+      </c>
+      <c r="P21">
+        <v>-1.9694671173</v>
+      </c>
+      <c r="Q21">
+        <v>0.8305328827</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.05603144920642224</v>
+      </c>
+      <c r="T21">
+        <v>0.6544813746516194</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0.04699342865116583</v>
+      </c>
+      <c r="W21">
+        <v>0.1750673071567808</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.1515917053263414</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.08039226221699036</v>
+      </c>
+      <c r="C22">
+        <v>33.48032689514119</v>
+      </c>
+      <c r="D22">
+        <v>50.95832689514119</v>
+      </c>
+      <c r="E22">
+        <v>17.888</v>
+      </c>
+      <c r="F22">
+        <v>19.278</v>
+      </c>
+      <c r="G22">
+        <v>1.8</v>
+      </c>
+      <c r="H22">
+        <v>95</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>3.31</v>
+      </c>
+      <c r="K22">
+        <v>2.8</v>
+      </c>
+      <c r="L22">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M22">
+        <v>3.541368600000001</v>
+      </c>
+      <c r="N22">
+        <v>-3.0313686</v>
+      </c>
+      <c r="O22">
+        <v>-0.9397242660000001</v>
+      </c>
+      <c r="P22">
+        <v>-2.091644334</v>
+      </c>
+      <c r="Q22">
+        <v>0.7083556659999997</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.05661559232150251</v>
+      </c>
+      <c r="T22">
+        <v>0.6626623918347646</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.04464375721860753</v>
+      </c>
+      <c r="W22">
+        <v>0.1754989417989418</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.1440121200600243</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.08213626221699036</v>
+      </c>
+      <c r="C23">
+        <v>31.2962747429019</v>
+      </c>
+      <c r="D23">
+        <v>49.7381747429019</v>
+      </c>
+      <c r="E23">
+        <v>18.8519</v>
+      </c>
+      <c r="F23">
+        <v>20.2419</v>
+      </c>
+      <c r="G23">
+        <v>1.8</v>
+      </c>
+      <c r="H23">
+        <v>95</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>3.31</v>
+      </c>
+      <c r="K23">
+        <v>2.8</v>
+      </c>
+      <c r="L23">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M23">
+        <v>3.71843703</v>
+      </c>
+      <c r="N23">
+        <v>-3.20843703</v>
+      </c>
+      <c r="O23">
+        <v>-0.9946154792999999</v>
+      </c>
+      <c r="P23">
+        <v>-2.2138215507</v>
+      </c>
+      <c r="Q23">
+        <v>0.5861784493000002</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.05721452386987595</v>
+      </c>
+      <c r="T23">
+        <v>0.6710505233769768</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.04251786401772146</v>
+      </c>
+      <c r="W23">
+        <v>0.1758894683799446</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.1371544000571661</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.08388026221699037</v>
+      </c>
+      <c r="C24">
+        <v>29.16928716217923</v>
+      </c>
+      <c r="D24">
+        <v>48.57508716217923</v>
+      </c>
+      <c r="E24">
+        <v>19.8158</v>
+      </c>
+      <c r="F24">
+        <v>21.2058</v>
+      </c>
+      <c r="G24">
+        <v>1.8</v>
+      </c>
+      <c r="H24">
+        <v>95</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>3.31</v>
+      </c>
+      <c r="K24">
+        <v>2.8</v>
+      </c>
+      <c r="L24">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M24">
+        <v>3.89550546</v>
+      </c>
+      <c r="N24">
+        <v>-3.38550546</v>
+      </c>
+      <c r="O24">
+        <v>-1.0495066926</v>
+      </c>
+      <c r="P24">
+        <v>-2.3359987674</v>
+      </c>
+      <c r="Q24">
+        <v>0.4640012326000003</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.05782881263743847</v>
+      </c>
+      <c r="T24">
+        <v>0.6796537352151432</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.04058523383509777</v>
+      </c>
+      <c r="W24">
+        <v>0.1762444925444925</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.1309201091454767</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.08562426221699038</v>
+      </c>
+      <c r="C25">
+        <v>27.09545239766103</v>
+      </c>
+      <c r="D25">
+        <v>47.46515239766104</v>
+      </c>
+      <c r="E25">
+        <v>20.7797</v>
+      </c>
+      <c r="F25">
+        <v>22.1697</v>
+      </c>
+      <c r="G25">
+        <v>1.8</v>
+      </c>
+      <c r="H25">
+        <v>95</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>3.31</v>
+      </c>
+      <c r="K25">
+        <v>2.8</v>
+      </c>
+      <c r="L25">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M25">
+        <v>4.07257389</v>
+      </c>
+      <c r="N25">
+        <v>-3.56257389</v>
+      </c>
+      <c r="O25">
+        <v>-1.1043979059</v>
+      </c>
+      <c r="P25">
+        <v>-2.4581759841</v>
+      </c>
+      <c r="Q25">
+        <v>0.3418240158999999</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.05845905695740521</v>
+      </c>
+      <c r="T25">
+        <v>0.6884804071010542</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.03882065845096307</v>
+      </c>
+      <c r="W25">
+        <v>0.1765686450425581</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.1252279304869777</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.08736826221699037</v>
+      </c>
+      <c r="C26">
+        <v>25.071208239475</v>
+      </c>
+      <c r="D26">
+        <v>46.404808239475</v>
+      </c>
+      <c r="E26">
+        <v>21.7436</v>
+      </c>
+      <c r="F26">
+        <v>23.1336</v>
+      </c>
+      <c r="G26">
+        <v>1.8</v>
+      </c>
+      <c r="H26">
+        <v>95</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>3.31</v>
+      </c>
+      <c r="K26">
+        <v>2.8</v>
+      </c>
+      <c r="L26">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M26">
+        <v>4.24964232</v>
+      </c>
+      <c r="N26">
+        <v>-3.739642319999999</v>
+      </c>
+      <c r="O26">
+        <v>-1.1592891192</v>
+      </c>
+      <c r="P26">
+        <v>-2.580353200799999</v>
+      </c>
+      <c r="Q26">
+        <v>0.2196467992000004</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.05910588665421317</v>
+      </c>
+      <c r="T26">
+        <v>0.697539359826068</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.03720313101550628</v>
+      </c>
+      <c r="W26">
+        <v>0.1768657848324515</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.1200101000500203</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.08911226221699037</v>
+      </c>
+      <c r="C27">
+        <v>23.09330383311429</v>
+      </c>
+      <c r="D27">
+        <v>45.3908038331143</v>
+      </c>
+      <c r="E27">
+        <v>22.7075</v>
+      </c>
+      <c r="F27">
+        <v>24.0975</v>
+      </c>
+      <c r="G27">
+        <v>1.8</v>
+      </c>
+      <c r="H27">
+        <v>95</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>3.31</v>
+      </c>
+      <c r="K27">
+        <v>2.8</v>
+      </c>
+      <c r="L27">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M27">
+        <v>4.42671075</v>
+      </c>
+      <c r="N27">
+        <v>-3.91671075</v>
+      </c>
+      <c r="O27">
+        <v>-1.2141803325</v>
+      </c>
+      <c r="P27">
+        <v>-2.7025304175</v>
+      </c>
+      <c r="Q27">
+        <v>0.09746958250000004</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.059769965142936</v>
+      </c>
+      <c r="T27">
+        <v>0.7068398846237489</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.03571500577488603</v>
+      </c>
+      <c r="W27">
+        <v>0.1771391534391534</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.1152096960480194</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.09085626221699036</v>
+      </c>
+      <c r="C28">
+        <v>21.15876638930486</v>
+      </c>
+      <c r="D28">
+        <v>44.42016638930487</v>
+      </c>
+      <c r="E28">
+        <v>23.6714</v>
+      </c>
+      <c r="F28">
+        <v>25.0614</v>
+      </c>
+      <c r="G28">
+        <v>1.8</v>
+      </c>
+      <c r="H28">
+        <v>95</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>3.31</v>
+      </c>
+      <c r="K28">
+        <v>2.8</v>
+      </c>
+      <c r="L28">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M28">
+        <v>4.60377918</v>
+      </c>
+      <c r="N28">
+        <v>-4.09377918</v>
+      </c>
+      <c r="O28">
+        <v>-1.2690715458</v>
+      </c>
+      <c r="P28">
+        <v>-2.8247076342</v>
+      </c>
+      <c r="Q28">
+        <v>-0.02470763420000033</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.06045199169892164</v>
+      </c>
+      <c r="T28">
+        <v>0.7163917749565023</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.03434135170662118</v>
+      </c>
+      <c r="W28">
+        <v>0.1773914936914937</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.1107785538923263</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.09260026221699037</v>
+      </c>
+      <c r="C29">
+        <v>19.26487207570776</v>
+      </c>
+      <c r="D29">
+        <v>43.49017207570777</v>
+      </c>
+      <c r="E29">
+        <v>24.6353</v>
+      </c>
+      <c r="F29">
+        <v>26.0253</v>
+      </c>
+      <c r="G29">
+        <v>1.8</v>
+      </c>
+      <c r="H29">
+        <v>95</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>3.31</v>
+      </c>
+      <c r="K29">
+        <v>2.8</v>
+      </c>
+      <c r="L29">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M29">
+        <v>4.78084761</v>
+      </c>
+      <c r="N29">
+        <v>-4.270847610000001</v>
+      </c>
+      <c r="O29">
+        <v>-1.3239627591</v>
+      </c>
+      <c r="P29">
+        <v>-2.9468848509</v>
+      </c>
+      <c r="Q29">
+        <v>-0.1468848509000003</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.06115270391397536</v>
+      </c>
+      <c r="T29">
+        <v>0.7262053609148106</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.03306944979156114</v>
+      </c>
+      <c r="W29">
+        <v>0.1776251420732902</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.1066756444889068</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.09434426221699037</v>
+      </c>
+      <c r="C30">
+        <v>17.40912049015916</v>
+      </c>
+      <c r="D30">
+        <v>42.59832049015917</v>
+      </c>
+      <c r="E30">
+        <v>25.5992</v>
+      </c>
+      <c r="F30">
+        <v>26.9892</v>
+      </c>
+      <c r="G30">
+        <v>1.8</v>
+      </c>
+      <c r="H30">
+        <v>95</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>3.31</v>
+      </c>
+      <c r="K30">
+        <v>2.8</v>
+      </c>
+      <c r="L30">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M30">
+        <v>4.957916040000001</v>
+      </c>
+      <c r="N30">
+        <v>-4.447916040000001</v>
+      </c>
+      <c r="O30">
+        <v>-1.3788539724</v>
+      </c>
+      <c r="P30">
+        <v>-3.069062067600001</v>
+      </c>
+      <c r="Q30">
+        <v>-0.2690620676000011</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.06187288035722502</v>
+      </c>
+      <c r="T30">
+        <v>0.7362915464830718</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.0318883980132911</v>
+      </c>
+      <c r="W30">
+        <v>0.1778421012849584</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.1028658000428744</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.09608826221699036</v>
+      </c>
+      <c r="C31">
+        <v>15.58921221165382</v>
+      </c>
+      <c r="D31">
+        <v>41.74231221165382</v>
+      </c>
+      <c r="E31">
+        <v>26.5631</v>
+      </c>
+      <c r="F31">
+        <v>27.9531</v>
+      </c>
+      <c r="G31">
+        <v>1.8</v>
+      </c>
+      <c r="H31">
+        <v>95</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>3.31</v>
+      </c>
+      <c r="K31">
+        <v>2.8</v>
+      </c>
+      <c r="L31">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M31">
+        <v>5.13498447</v>
+      </c>
+      <c r="N31">
+        <v>-4.624984469999999</v>
+      </c>
+      <c r="O31">
+        <v>-1.4337451857</v>
+      </c>
+      <c r="P31">
+        <v>-3.191239284299999</v>
+      </c>
+      <c r="Q31">
+        <v>-0.3912392842999997</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.0626133434608479</v>
+      </c>
+      <c r="T31">
+        <v>0.7466618499546644</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.0307887980817983</v>
+      </c>
+      <c r="W31">
+        <v>0.1780440977923737</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.09931870348967198</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.09783226221699036</v>
+      </c>
+      <c r="C32">
+        <v>13.80302900467219</v>
+      </c>
+      <c r="D32">
+        <v>40.92002900467219</v>
+      </c>
+      <c r="E32">
+        <v>27.527</v>
+      </c>
+      <c r="F32">
+        <v>28.917</v>
+      </c>
+      <c r="G32">
+        <v>1.8</v>
+      </c>
+      <c r="H32">
+        <v>95</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>3.31</v>
+      </c>
+      <c r="K32">
+        <v>2.8</v>
+      </c>
+      <c r="L32">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M32">
+        <v>5.312052899999999</v>
+      </c>
+      <c r="N32">
+        <v>-4.8020529</v>
+      </c>
+      <c r="O32">
+        <v>-1.488636399</v>
+      </c>
+      <c r="P32">
+        <v>-3.313416501</v>
+      </c>
+      <c r="Q32">
+        <v>-0.513416501</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.06337496265314572</v>
+      </c>
+      <c r="T32">
+        <v>0.7573284478111596</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.02976250481240503</v>
+      </c>
+      <c r="W32">
+        <v>0.1782326278659612</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.09600808004001615</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.09957626221699037</v>
+      </c>
+      <c r="C33">
+        <v>12.04861631804129</v>
+      </c>
+      <c r="D33">
+        <v>40.12951631804129</v>
+      </c>
+      <c r="E33">
+        <v>28.4909</v>
+      </c>
+      <c r="F33">
+        <v>29.8809</v>
+      </c>
+      <c r="G33">
+        <v>1.8</v>
+      </c>
+      <c r="H33">
+        <v>95</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>3.31</v>
+      </c>
+      <c r="K33">
+        <v>2.8</v>
+      </c>
+      <c r="L33">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M33">
+        <v>5.489121330000001</v>
+      </c>
+      <c r="N33">
+        <v>-4.97912133</v>
+      </c>
+      <c r="O33">
+        <v>-1.5435276123</v>
+      </c>
+      <c r="P33">
+        <v>-3.4355937177</v>
+      </c>
+      <c r="Q33">
+        <v>-0.6355937176999999</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.06415865776406089</v>
+      </c>
+      <c r="T33">
+        <v>0.7683042224171185</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.02880242401200486</v>
+      </c>
+      <c r="W33">
+        <v>0.1784089947089947</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.09291104520001581</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1013202622169904</v>
+      </c>
+      <c r="C34">
+        <v>10.32416777392139</v>
+      </c>
+      <c r="D34">
+        <v>39.36896777392139</v>
+      </c>
+      <c r="E34">
+        <v>29.4548</v>
+      </c>
+      <c r="F34">
+        <v>30.8448</v>
+      </c>
+      <c r="G34">
+        <v>1.8</v>
+      </c>
+      <c r="H34">
+        <v>95</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>3.31</v>
+      </c>
+      <c r="K34">
+        <v>2.8</v>
+      </c>
+      <c r="L34">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M34">
+        <v>5.66618976</v>
+      </c>
+      <c r="N34">
+        <v>-5.15618976</v>
+      </c>
+      <c r="O34">
+        <v>-1.5984188256</v>
+      </c>
+      <c r="P34">
+        <v>-3.5577709344</v>
+      </c>
+      <c r="Q34">
+        <v>-0.7577709344000003</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.06496540273117943</v>
+      </c>
+      <c r="T34">
+        <v>0.7796028139232525</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.02790234826162971</v>
+      </c>
+      <c r="W34">
+        <v>0.1785743386243386</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.09000757503751511</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1030642622169904</v>
+      </c>
+      <c r="C35">
+        <v>8.628011387806744</v>
+      </c>
+      <c r="D35">
+        <v>38.63671138780675</v>
+      </c>
+      <c r="E35">
+        <v>30.4187</v>
+      </c>
+      <c r="F35">
+        <v>31.8087</v>
+      </c>
+      <c r="G35">
+        <v>1.8</v>
+      </c>
+      <c r="H35">
+        <v>95</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>3.31</v>
+      </c>
+      <c r="K35">
+        <v>2.8</v>
+      </c>
+      <c r="L35">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M35">
+        <v>5.84325819</v>
+      </c>
+      <c r="N35">
+        <v>-5.33325819</v>
+      </c>
+      <c r="O35">
+        <v>-1.6533100389</v>
+      </c>
+      <c r="P35">
+        <v>-3.679948151100001</v>
+      </c>
+      <c r="Q35">
+        <v>-0.8799481511000007</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.06579622963761494</v>
+      </c>
+      <c r="T35">
+        <v>0.7912386768176295</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.02705682255673184</v>
+      </c>
+      <c r="W35">
+        <v>0.1787296616963284</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.08728007276365102</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1048082622169904</v>
+      </c>
+      <c r="C36">
+        <v>6.958597298279642</v>
+      </c>
+      <c r="D36">
+        <v>37.93119729827965</v>
+      </c>
+      <c r="E36">
+        <v>31.3826</v>
+      </c>
+      <c r="F36">
+        <v>32.7726</v>
+      </c>
+      <c r="G36">
+        <v>1.8</v>
+      </c>
+      <c r="H36">
+        <v>95</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>3.31</v>
+      </c>
+      <c r="K36">
+        <v>2.8</v>
+      </c>
+      <c r="L36">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M36">
+        <v>6.020326620000001</v>
+      </c>
+      <c r="N36">
+        <v>-5.510326620000001</v>
+      </c>
+      <c r="O36">
+        <v>-1.7082012522</v>
+      </c>
+      <c r="P36">
+        <v>-3.8021253678</v>
+      </c>
+      <c r="Q36">
+        <v>-1.002125367800001</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.06665223311697276</v>
+      </c>
+      <c r="T36">
+        <v>0.8032271416178967</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.02626103365800443</v>
+      </c>
+      <c r="W36">
+        <v>0.1788758481170246</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.08471301180001423</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1065522622169904</v>
+      </c>
+      <c r="C37">
+        <v>5.314486816999512</v>
+      </c>
+      <c r="D37">
+        <v>37.25098681699952</v>
+      </c>
+      <c r="E37">
+        <v>32.34650000000001</v>
+      </c>
+      <c r="F37">
+        <v>33.73650000000001</v>
+      </c>
+      <c r="G37">
+        <v>1.8</v>
+      </c>
+      <c r="H37">
+        <v>95</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>3.31</v>
+      </c>
+      <c r="K37">
+        <v>2.8</v>
+      </c>
+      <c r="L37">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M37">
+        <v>6.197395050000002</v>
+      </c>
+      <c r="N37">
+        <v>-5.687395050000001</v>
+      </c>
+      <c r="O37">
+        <v>-1.7630924655</v>
+      </c>
+      <c r="P37">
+        <v>-3.924302584500001</v>
+      </c>
+      <c r="Q37">
+        <v>-1.124302584500001</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.06753457516492617</v>
+      </c>
+      <c r="T37">
+        <v>0.8155844822581719</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.02551071841063287</v>
+      </c>
+      <c r="W37">
+        <v>0.1790136810279667</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.0822926400342997</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1082962622169904</v>
+      </c>
+      <c r="C38">
+        <v>3.694342636118755</v>
+      </c>
+      <c r="D38">
+        <v>36.59474263611876</v>
+      </c>
+      <c r="E38">
+        <v>33.3104</v>
+      </c>
+      <c r="F38">
+        <v>34.7004</v>
+      </c>
+      <c r="G38">
+        <v>1.8</v>
+      </c>
+      <c r="H38">
+        <v>95</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>3.31</v>
+      </c>
+      <c r="K38">
+        <v>2.8</v>
+      </c>
+      <c r="L38">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M38">
+        <v>6.37446348</v>
+      </c>
+      <c r="N38">
+        <v>-5.86446348</v>
+      </c>
+      <c r="O38">
+        <v>-1.8179836788</v>
+      </c>
+      <c r="P38">
+        <v>-4.046479801199999</v>
+      </c>
+      <c r="Q38">
+        <v>-1.2464798012</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.06844449040187815</v>
+      </c>
+      <c r="T38">
+        <v>0.8283279897934559</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.02480208734367085</v>
+      </c>
+      <c r="W38">
+        <v>0.1791438565549677</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.08000673336668029</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1100402622169904</v>
+      </c>
+      <c r="C39">
+        <v>2.096920052864775</v>
+      </c>
+      <c r="D39">
+        <v>35.96122005286477</v>
+      </c>
+      <c r="E39">
+        <v>34.2743</v>
+      </c>
+      <c r="F39">
+        <v>35.6643</v>
+      </c>
+      <c r="G39">
+        <v>1.8</v>
+      </c>
+      <c r="H39">
+        <v>95</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>3.31</v>
+      </c>
+      <c r="K39">
+        <v>2.8</v>
+      </c>
+      <c r="L39">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M39">
+        <v>6.55153191</v>
+      </c>
+      <c r="N39">
+        <v>-6.04153191</v>
+      </c>
+      <c r="O39">
+        <v>-1.8728748921</v>
+      </c>
+      <c r="P39">
+        <v>-4.168657017899999</v>
+      </c>
+      <c r="Q39">
+        <v>-1.368657017899999</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.06938329183682859</v>
+      </c>
+      <c r="T39">
+        <v>0.8414760531235107</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.02413176065870678</v>
+      </c>
+      <c r="W39">
+        <v>0.1792669955669956</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.07784438922163472</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1117842622169904</v>
+      </c>
+      <c r="C40">
+        <v>0.5210590901229395</v>
+      </c>
+      <c r="D40">
+        <v>35.34925909012294</v>
+      </c>
+      <c r="E40">
+        <v>35.2382</v>
+      </c>
+      <c r="F40">
+        <v>36.6282</v>
+      </c>
+      <c r="G40">
+        <v>1.8</v>
+      </c>
+      <c r="H40">
+        <v>95</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>3.31</v>
+      </c>
+      <c r="K40">
+        <v>2.8</v>
+      </c>
+      <c r="L40">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M40">
+        <v>6.72860034</v>
+      </c>
+      <c r="N40">
+        <v>-6.21860034</v>
+      </c>
+      <c r="O40">
+        <v>-1.9277661054</v>
+      </c>
+      <c r="P40">
+        <v>-4.2908342346</v>
+      </c>
+      <c r="Q40">
+        <v>-1.4908342346</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.07035237718903549</v>
+      </c>
+      <c r="T40">
+        <v>0.8550482475287285</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.02349671432558292</v>
+      </c>
+      <c r="W40">
+        <v>0.1793836535783904</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.07579585266317068</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1135282622169904</v>
+      </c>
+      <c r="C41">
+        <v>-1.034322591926312</v>
+      </c>
+      <c r="D41">
+        <v>34.75777740807369</v>
+      </c>
+      <c r="E41">
+        <v>36.2021</v>
+      </c>
+      <c r="F41">
+        <v>37.5921</v>
+      </c>
+      <c r="G41">
+        <v>1.8</v>
+      </c>
+      <c r="H41">
+        <v>95</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>3.31</v>
+      </c>
+      <c r="K41">
+        <v>2.8</v>
+      </c>
+      <c r="L41">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M41">
+        <v>6.90566877</v>
+      </c>
+      <c r="N41">
+        <v>-6.39566877</v>
+      </c>
+      <c r="O41">
+        <v>-1.9826573187</v>
+      </c>
+      <c r="P41">
+        <v>-4.4130114513</v>
+      </c>
+      <c r="Q41">
+        <v>-1.6130114513</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.07135323583147871</v>
+      </c>
+      <c r="T41">
+        <v>0.8690654319144454</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.02289423447108079</v>
+      </c>
+      <c r="W41">
+        <v>0.1794943291276625</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.07385236926155092</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1152722622169904</v>
+      </c>
+      <c r="C42">
+        <v>-2.570236084245259</v>
+      </c>
+      <c r="D42">
+        <v>34.18576391575475</v>
+      </c>
+      <c r="E42">
+        <v>37.166</v>
+      </c>
+      <c r="F42">
+        <v>38.556</v>
+      </c>
+      <c r="G42">
+        <v>1.8</v>
+      </c>
+      <c r="H42">
+        <v>95</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>3.31</v>
+      </c>
+      <c r="K42">
+        <v>2.8</v>
+      </c>
+      <c r="L42">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M42">
+        <v>7.082737200000001</v>
+      </c>
+      <c r="N42">
+        <v>-6.572737200000001</v>
+      </c>
+      <c r="O42">
+        <v>-2.037548532</v>
+      </c>
+      <c r="P42">
+        <v>-4.535188668</v>
+      </c>
+      <c r="Q42">
+        <v>-1.735188668</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.07238745642867002</v>
+      </c>
+      <c r="T42">
+        <v>0.8835498557796863</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.02232187860930376</v>
+      </c>
+      <c r="W42">
+        <v>0.1795994708994709</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.0720060600300122</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1170162622169904</v>
+      </c>
+      <c r="C43">
+        <v>-4.087626996777786</v>
+      </c>
+      <c r="D43">
+        <v>33.63227300322222</v>
+      </c>
+      <c r="E43">
+        <v>38.1299</v>
+      </c>
+      <c r="F43">
+        <v>39.5199</v>
+      </c>
+      <c r="G43">
+        <v>1.8</v>
+      </c>
+      <c r="H43">
+        <v>95</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>3.31</v>
+      </c>
+      <c r="K43">
+        <v>2.8</v>
+      </c>
+      <c r="L43">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M43">
+        <v>7.25980563</v>
+      </c>
+      <c r="N43">
+        <v>-6.749805629999999</v>
+      </c>
+      <c r="O43">
+        <v>-2.0924397453</v>
+      </c>
+      <c r="P43">
+        <v>-4.657365884699999</v>
+      </c>
+      <c r="Q43">
+        <v>-1.857365884699999</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.07345673535118986</v>
+      </c>
+      <c r="T43">
+        <v>0.8985252770640878</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.02177744254566221</v>
+      </c>
+      <c r="W43">
+        <v>0.1796994838043619</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.07024981466342661</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1187602622169904</v>
+      </c>
+      <c r="C44">
+        <v>-5.587380674903876</v>
+      </c>
+      <c r="D44">
+        <v>33.09641932509613</v>
+      </c>
+      <c r="E44">
+        <v>39.0938</v>
+      </c>
+      <c r="F44">
+        <v>40.4838</v>
+      </c>
+      <c r="G44">
+        <v>1.8</v>
+      </c>
+      <c r="H44">
+        <v>95</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>3.31</v>
+      </c>
+      <c r="K44">
+        <v>2.8</v>
+      </c>
+      <c r="L44">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M44">
+        <v>7.43687406</v>
+      </c>
+      <c r="N44">
+        <v>-6.926874059999999</v>
+      </c>
+      <c r="O44">
+        <v>-2.1473309586</v>
+      </c>
+      <c r="P44">
+        <v>-4.7795431014</v>
+      </c>
+      <c r="Q44">
+        <v>-1.9795431014</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.07456288596069312</v>
+      </c>
+      <c r="T44">
+        <v>0.9140170921858822</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.02125893200886073</v>
+      </c>
+      <c r="W44">
+        <v>0.1797947341899723</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.06857720002858303</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1205042622169904</v>
+      </c>
+      <c r="C45">
+        <v>-7.070326925040746</v>
+      </c>
+      <c r="D45">
+        <v>32.57737307495925</v>
+      </c>
+      <c r="E45">
+        <v>40.0577</v>
+      </c>
+      <c r="F45">
+        <v>41.4477</v>
+      </c>
+      <c r="G45">
+        <v>1.8</v>
+      </c>
+      <c r="H45">
+        <v>95</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>3.31</v>
+      </c>
+      <c r="K45">
+        <v>2.8</v>
+      </c>
+      <c r="L45">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M45">
+        <v>7.613942489999999</v>
+      </c>
+      <c r="N45">
+        <v>-7.10394249</v>
+      </c>
+      <c r="O45">
+        <v>-2.2022221719</v>
+      </c>
+      <c r="P45">
+        <v>-4.9017203181</v>
+      </c>
+      <c r="Q45">
+        <v>-2.1017203181</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.07570784887228423</v>
+      </c>
+      <c r="T45">
+        <v>0.9300524797680907</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.02076453824121281</v>
+      </c>
+      <c r="W45">
+        <v>0.1798855543250892</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.06698238142326707</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1222482622169904</v>
+      </c>
+      <c r="C46">
+        <v>-8.537244302444748</v>
+      </c>
+      <c r="D46">
+        <v>32.07435569755526</v>
+      </c>
+      <c r="E46">
+        <v>41.0216</v>
+      </c>
+      <c r="F46">
+        <v>42.4116</v>
+      </c>
+      <c r="G46">
+        <v>1.8</v>
+      </c>
+      <c r="H46">
+        <v>95</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>3.31</v>
+      </c>
+      <c r="K46">
+        <v>2.8</v>
+      </c>
+      <c r="L46">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M46">
+        <v>7.79101092</v>
+      </c>
+      <c r="N46">
+        <v>-7.28101092</v>
+      </c>
+      <c r="O46">
+        <v>-2.2571133852</v>
+      </c>
+      <c r="P46">
+        <v>-5.0238975348</v>
+      </c>
+      <c r="Q46">
+        <v>-2.2238975348</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.07689370331643217</v>
+      </c>
+      <c r="T46">
+        <v>0.9466605597639495</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.02029261691754888</v>
+      </c>
+      <c r="W46">
+        <v>0.1799722462722463</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.06546005457273829</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1239922622169904</v>
+      </c>
+      <c r="C47">
+        <v>-9.988864007813412</v>
+      </c>
+      <c r="D47">
+        <v>31.58663599218659</v>
+      </c>
+      <c r="E47">
+        <v>41.9855</v>
+      </c>
+      <c r="F47">
+        <v>43.3755</v>
+      </c>
+      <c r="G47">
+        <v>1.8</v>
+      </c>
+      <c r="H47">
+        <v>95</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>3.31</v>
+      </c>
+      <c r="K47">
+        <v>2.8</v>
+      </c>
+      <c r="L47">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M47">
+        <v>7.968079350000001</v>
+      </c>
+      <c r="N47">
+        <v>-7.45807935</v>
+      </c>
+      <c r="O47">
+        <v>-2.3120045985</v>
+      </c>
+      <c r="P47">
+        <v>-5.1460747515</v>
+      </c>
+      <c r="Q47">
+        <v>-2.346074751500001</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.0781226797403673</v>
+      </c>
+      <c r="T47">
+        <v>0.9638725699414759</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.01984166987493668</v>
+      </c>
+      <c r="W47">
+        <v>0.1800550852439742</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.06400538669334421</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1257362622169904</v>
+      </c>
+      <c r="C48">
+        <v>-11.4258734337044</v>
+      </c>
+      <c r="D48">
+        <v>31.1135265662956</v>
+      </c>
+      <c r="E48">
+        <v>42.9494</v>
+      </c>
+      <c r="F48">
+        <v>44.3394</v>
+      </c>
+      <c r="G48">
+        <v>1.8</v>
+      </c>
+      <c r="H48">
+        <v>95</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>3.31</v>
+      </c>
+      <c r="K48">
+        <v>2.8</v>
+      </c>
+      <c r="L48">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M48">
+        <v>8.14514778</v>
+      </c>
+      <c r="N48">
+        <v>-7.63514778</v>
+      </c>
+      <c r="O48">
+        <v>-2.3668958118</v>
+      </c>
+      <c r="P48">
+        <v>-5.2682519682</v>
+      </c>
+      <c r="Q48">
+        <v>-2.468251968200001</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.07939717380963336</v>
+      </c>
+      <c r="T48">
+        <v>0.9817220619774292</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.01941032922548154</v>
+      </c>
+      <c r="W48">
+        <v>0.180134322521279</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.06261396524348872</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1274802622169904</v>
+      </c>
+      <c r="C49">
+        <v>-12.84891939694478</v>
+      </c>
+      <c r="D49">
+        <v>30.65438060305522</v>
+      </c>
+      <c r="E49">
+        <v>43.9133</v>
+      </c>
+      <c r="F49">
+        <v>45.3033</v>
+      </c>
+      <c r="G49">
+        <v>1.8</v>
+      </c>
+      <c r="H49">
+        <v>95</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>3.31</v>
+      </c>
+      <c r="K49">
+        <v>2.8</v>
+      </c>
+      <c r="L49">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M49">
+        <v>8.322216210000001</v>
+      </c>
+      <c r="N49">
+        <v>-7.812216210000001</v>
+      </c>
+      <c r="O49">
+        <v>-2.4217870251</v>
+      </c>
+      <c r="P49">
+        <v>-5.3904291849</v>
+      </c>
+      <c r="Q49">
+        <v>-2.590429184900001</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.08071976199472078</v>
+      </c>
+      <c r="T49">
+        <v>1.000245119750588</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.0189973434972798</v>
+      </c>
+      <c r="W49">
+        <v>0.1802101879995497</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.06128175321703155</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1292242622169903</v>
+      </c>
+      <c r="C50">
+        <v>-14.25861108899616</v>
+      </c>
+      <c r="D50">
+        <v>30.20858891100384</v>
+      </c>
+      <c r="E50">
+        <v>44.87719999999999</v>
+      </c>
+      <c r="F50">
+        <v>46.2672</v>
+      </c>
+      <c r="G50">
+        <v>1.8</v>
+      </c>
+      <c r="H50">
+        <v>95</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>3.31</v>
+      </c>
+      <c r="K50">
+        <v>2.8</v>
+      </c>
+      <c r="L50">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M50">
+        <v>8.499284639999999</v>
+      </c>
+      <c r="N50">
+        <v>-7.989284639999999</v>
+      </c>
+      <c r="O50">
+        <v>-2.4766782384</v>
+      </c>
+      <c r="P50">
+        <v>-5.512606401599999</v>
+      </c>
+      <c r="Q50">
+        <v>-2.7126064016</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.0820932189561577</v>
+      </c>
+      <c r="T50">
+        <v>1.019480602822715</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.01860156550775314</v>
+      </c>
+      <c r="W50">
+        <v>0.1802828924162257</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.06000505002501011</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1309682622169904</v>
+      </c>
+      <c r="C51">
+        <v>-15.65552277257583</v>
+      </c>
+      <c r="D51">
+        <v>29.77557722742417</v>
+      </c>
+      <c r="E51">
+        <v>45.8411</v>
+      </c>
+      <c r="F51">
+        <v>47.2311</v>
+      </c>
+      <c r="G51">
+        <v>1.8</v>
+      </c>
+      <c r="H51">
+        <v>95</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>3.31</v>
+      </c>
+      <c r="K51">
+        <v>2.8</v>
+      </c>
+      <c r="L51">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M51">
+        <v>8.676353069999999</v>
+      </c>
+      <c r="N51">
+        <v>-8.16635307</v>
+      </c>
+      <c r="O51">
+        <v>-2.5315694517</v>
+      </c>
+      <c r="P51">
+        <v>-5.6347836183</v>
+      </c>
+      <c r="Q51">
+        <v>-2.8347836183</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.0835205369749059</v>
+      </c>
+      <c r="T51">
+        <v>1.039470418564337</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.01822194172188063</v>
+      </c>
+      <c r="W51">
+        <v>0.1803526293056905</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.0587804571673568</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1327122622169904</v>
+      </c>
+      <c r="C52">
+        <v>-17.04019624963377</v>
+      </c>
+      <c r="D52">
+        <v>29.35480375036623</v>
+      </c>
+      <c r="E52">
+        <v>46.805</v>
+      </c>
+      <c r="F52">
+        <v>48.195</v>
+      </c>
+      <c r="G52">
+        <v>1.8</v>
+      </c>
+      <c r="H52">
+        <v>95</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>3.31</v>
+      </c>
+      <c r="K52">
+        <v>2.8</v>
+      </c>
+      <c r="L52">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M52">
+        <v>8.8534215</v>
+      </c>
+      <c r="N52">
+        <v>-8.3434215</v>
+      </c>
+      <c r="O52">
+        <v>-2.586460665</v>
+      </c>
+      <c r="P52">
+        <v>-5.756960835</v>
+      </c>
+      <c r="Q52">
+        <v>-2.956960835</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.08500494771440402</v>
+      </c>
+      <c r="T52">
+        <v>1.060259826935623</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.01785750288744302</v>
+      </c>
+      <c r="W52">
+        <v>0.1804195767195767</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.05760484802400967</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1344562622169904</v>
+      </c>
+      <c r="C53">
+        <v>-18.41314312298861</v>
+      </c>
+      <c r="D53">
+        <v>28.94575687701139</v>
+      </c>
+      <c r="E53">
+        <v>47.7689</v>
+      </c>
+      <c r="F53">
+        <v>49.1589</v>
+      </c>
+      <c r="G53">
+        <v>1.8</v>
+      </c>
+      <c r="H53">
+        <v>95</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>3.31</v>
+      </c>
+      <c r="K53">
+        <v>2.8</v>
+      </c>
+      <c r="L53">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M53">
+        <v>9.03048993</v>
+      </c>
+      <c r="N53">
+        <v>-8.52048993</v>
+      </c>
+      <c r="O53">
+        <v>-2.6413518783</v>
+      </c>
+      <c r="P53">
+        <v>-5.8791380517</v>
+      </c>
+      <c r="Q53">
+        <v>-3.0791380517</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.08654994664735105</v>
+      </c>
+      <c r="T53">
+        <v>1.081897782587371</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.01750735577200296</v>
+      </c>
+      <c r="W53">
+        <v>0.1804838987446831</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.05647534120000952</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1362002622169904</v>
+      </c>
+      <c r="C54">
+        <v>-19.7748468714725</v>
+      </c>
+      <c r="D54">
+        <v>28.5479531285275</v>
+      </c>
+      <c r="E54">
+        <v>48.7328</v>
+      </c>
+      <c r="F54">
+        <v>50.12280000000001</v>
+      </c>
+      <c r="G54">
+        <v>1.8</v>
+      </c>
+      <c r="H54">
+        <v>95</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>3.31</v>
+      </c>
+      <c r="K54">
+        <v>2.8</v>
+      </c>
+      <c r="L54">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M54">
+        <v>9.20755836</v>
+      </c>
+      <c r="N54">
+        <v>-8.69755836</v>
+      </c>
+      <c r="O54">
+        <v>-2.6962430916</v>
+      </c>
+      <c r="P54">
+        <v>-6.001315268400001</v>
+      </c>
+      <c r="Q54">
+        <v>-3.201315268400001</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.08815932053583753</v>
+      </c>
+      <c r="T54">
+        <v>1.104437319724608</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.01717067585331059</v>
+      </c>
+      <c r="W54">
+        <v>0.1805457468457468</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.05538927694616314</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1379442622169904</v>
+      </c>
+      <c r="C55">
+        <v>-21.12576475628242</v>
+      </c>
+      <c r="D55">
+        <v>28.16093524371758</v>
+      </c>
+      <c r="E55">
+        <v>49.6967</v>
+      </c>
+      <c r="F55">
+        <v>51.0867</v>
+      </c>
+      <c r="G55">
+        <v>1.8</v>
+      </c>
+      <c r="H55">
+        <v>95</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>3.31</v>
+      </c>
+      <c r="K55">
+        <v>2.8</v>
+      </c>
+      <c r="L55">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M55">
+        <v>9.38462679</v>
+      </c>
+      <c r="N55">
+        <v>-8.874626790000001</v>
+      </c>
+      <c r="O55">
+        <v>-2.7511343049</v>
+      </c>
+      <c r="P55">
+        <v>-6.1234924851</v>
+      </c>
+      <c r="Q55">
+        <v>-3.3234924851</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.08983717841957875</v>
+      </c>
+      <c r="T55">
+        <v>1.127935986101727</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.01684670083721039</v>
+      </c>
+      <c r="W55">
+        <v>0.1806052610562044</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.05434419624906572</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1396882622169904</v>
+      </c>
+      <c r="C56">
+        <v>-22.46632957434182</v>
+      </c>
+      <c r="D56">
+        <v>27.78427042565819</v>
+      </c>
+      <c r="E56">
+        <v>50.6606</v>
+      </c>
+      <c r="F56">
+        <v>52.0506</v>
+      </c>
+      <c r="G56">
+        <v>1.8</v>
+      </c>
+      <c r="H56">
+        <v>95</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>3.31</v>
+      </c>
+      <c r="K56">
+        <v>2.8</v>
+      </c>
+      <c r="L56">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M56">
+        <v>9.561695220000001</v>
+      </c>
+      <c r="N56">
+        <v>-9.051695220000001</v>
+      </c>
+      <c r="O56">
+        <v>-2.8060255182</v>
+      </c>
+      <c r="P56">
+        <v>-6.245669701800001</v>
+      </c>
+      <c r="Q56">
+        <v>-3.445669701800001</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.09158798664609133</v>
+      </c>
+      <c r="T56">
+        <v>1.152456333625678</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.01653472489578057</v>
+      </c>
+      <c r="W56">
+        <v>0.1806625710366451</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.05333782224445338</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1414322622169904</v>
+      </c>
+      <c r="C57">
+        <v>-23.79695127280765</v>
+      </c>
+      <c r="D57">
+        <v>27.41754872719235</v>
+      </c>
+      <c r="E57">
+        <v>51.6245</v>
+      </c>
+      <c r="F57">
+        <v>53.01450000000001</v>
+      </c>
+      <c r="G57">
+        <v>1.8</v>
+      </c>
+      <c r="H57">
+        <v>95</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>3.31</v>
+      </c>
+      <c r="K57">
+        <v>2.8</v>
+      </c>
+      <c r="L57">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M57">
+        <v>9.738763650000001</v>
+      </c>
+      <c r="N57">
+        <v>-9.228763650000001</v>
+      </c>
+      <c r="O57">
+        <v>-2.8609167315</v>
+      </c>
+      <c r="P57">
+        <v>-6.367846918500002</v>
+      </c>
+      <c r="Q57">
+        <v>-3.567846918500002</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.09341660857156005</v>
+      </c>
+      <c r="T57">
+        <v>1.178066474372915</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.0162340935340391</v>
+      </c>
+      <c r="W57">
+        <v>0.180717797017797</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.05236804365819059</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1431762622169904</v>
+      </c>
+      <c r="C58">
+        <v>-25.11801843738476</v>
+      </c>
+      <c r="D58">
+        <v>27.06038156261525</v>
+      </c>
+      <c r="E58">
+        <v>52.58840000000001</v>
+      </c>
+      <c r="F58">
+        <v>53.97840000000001</v>
+      </c>
+      <c r="G58">
+        <v>1.8</v>
+      </c>
+      <c r="H58">
+        <v>95</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>3.31</v>
+      </c>
+      <c r="K58">
+        <v>2.8</v>
+      </c>
+      <c r="L58">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M58">
+        <v>9.915832080000001</v>
+      </c>
+      <c r="N58">
+        <v>-9.405832080000001</v>
+      </c>
+      <c r="O58">
+        <v>-2.9158079448</v>
+      </c>
+      <c r="P58">
+        <v>-6.490024135200001</v>
+      </c>
+      <c r="Q58">
+        <v>-3.690024135200001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.09532834967545911</v>
+      </c>
+      <c r="T58">
+        <v>1.204840712426845</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.01594419900664555</v>
+      </c>
+      <c r="W58">
+        <v>0.1807710506424792</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.05143290002143719</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1449202622169904</v>
+      </c>
+      <c r="C59">
+        <v>-26.4298996658069</v>
+      </c>
+      <c r="D59">
+        <v>26.71240033419311</v>
+      </c>
+      <c r="E59">
+        <v>53.5523</v>
+      </c>
+      <c r="F59">
+        <v>54.9423</v>
+      </c>
+      <c r="G59">
+        <v>1.8</v>
+      </c>
+      <c r="H59">
+        <v>95</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>3.31</v>
+      </c>
+      <c r="K59">
+        <v>2.8</v>
+      </c>
+      <c r="L59">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M59">
+        <v>10.09290051</v>
+      </c>
+      <c r="N59">
+        <v>-9.582900510000002</v>
+      </c>
+      <c r="O59">
+        <v>-2.9706991581</v>
+      </c>
+      <c r="P59">
+        <v>-6.612201351900001</v>
+      </c>
+      <c r="Q59">
+        <v>-3.812201351900002</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.09732900897023725</v>
+      </c>
+      <c r="T59">
+        <v>1.232860263878632</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.01566447621705527</v>
+      </c>
+      <c r="W59">
+        <v>0.1808224357189269</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.05053056844211379</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1466642622169904</v>
+      </c>
+      <c r="C60">
+        <v>-27.73294483669014</v>
+      </c>
+      <c r="D60">
+        <v>26.37325516330986</v>
+      </c>
+      <c r="E60">
+        <v>54.5162</v>
+      </c>
+      <c r="F60">
+        <v>55.9062</v>
+      </c>
+      <c r="G60">
+        <v>1.8</v>
+      </c>
+      <c r="H60">
+        <v>95</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>3.31</v>
+      </c>
+      <c r="K60">
+        <v>2.8</v>
+      </c>
+      <c r="L60">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M60">
+        <v>10.26996894</v>
+      </c>
+      <c r="N60">
+        <v>-9.75996894</v>
+      </c>
+      <c r="O60">
+        <v>-3.0255903714</v>
+      </c>
+      <c r="P60">
+        <v>-6.7343785686</v>
+      </c>
+      <c r="Q60">
+        <v>-3.934378568600001</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.09942493775524286</v>
+      </c>
+      <c r="T60">
+        <v>1.262214079685266</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.01539439904089915</v>
+      </c>
+      <c r="W60">
+        <v>0.1808720488961868</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.04965935174483593</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1484082622169904</v>
+      </c>
+      <c r="C61">
+        <v>-29.02748628294059</v>
+      </c>
+      <c r="D61">
+        <v>26.04261371705941</v>
+      </c>
+      <c r="E61">
+        <v>55.4801</v>
+      </c>
+      <c r="F61">
+        <v>56.8701</v>
+      </c>
+      <c r="G61">
+        <v>1.8</v>
+      </c>
+      <c r="H61">
+        <v>95</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>3.31</v>
+      </c>
+      <c r="K61">
+        <v>2.8</v>
+      </c>
+      <c r="L61">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M61">
+        <v>10.44703737</v>
+      </c>
+      <c r="N61">
+        <v>-9.937037370000001</v>
+      </c>
+      <c r="O61">
+        <v>-3.0804815847</v>
+      </c>
+      <c r="P61">
+        <v>-6.8565557853</v>
+      </c>
+      <c r="Q61">
+        <v>-4.0565557853</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1016231069687854</v>
+      </c>
+      <c r="T61">
+        <v>1.292999788945882</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.01513347702325679</v>
+      </c>
+      <c r="W61">
+        <v>0.1809199802708277</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.0488176678169574</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1501522622169904</v>
+      </c>
+      <c r="C62">
+        <v>-30.31383987798887</v>
+      </c>
+      <c r="D62">
+        <v>25.72016012201113</v>
+      </c>
+      <c r="E62">
+        <v>56.444</v>
+      </c>
+      <c r="F62">
+        <v>57.834</v>
+      </c>
+      <c r="G62">
+        <v>1.8</v>
+      </c>
+      <c r="H62">
+        <v>95</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>3.31</v>
+      </c>
+      <c r="K62">
+        <v>2.8</v>
+      </c>
+      <c r="L62">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M62">
+        <v>10.6241058</v>
+      </c>
+      <c r="N62">
+        <v>-10.1141058</v>
+      </c>
+      <c r="O62">
+        <v>-3.135372798</v>
+      </c>
+      <c r="P62">
+        <v>-6.978733001999999</v>
+      </c>
+      <c r="Q62">
+        <v>-4.178733002</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.103931184643005</v>
+      </c>
+      <c r="T62">
+        <v>1.325324783669529</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.01488125240620251</v>
+      </c>
+      <c r="W62">
+        <v>0.1809663139329806</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.04800404002000802</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1518962622169904</v>
+      </c>
+      <c r="C63">
+        <v>-31.59230604231461</v>
+      </c>
+      <c r="D63">
+        <v>25.40559395768538</v>
+      </c>
+      <c r="E63">
+        <v>57.4079</v>
+      </c>
+      <c r="F63">
+        <v>58.7979</v>
+      </c>
+      <c r="G63">
+        <v>1.8</v>
+      </c>
+      <c r="H63">
+        <v>95</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>3.31</v>
+      </c>
+      <c r="K63">
+        <v>2.8</v>
+      </c>
+      <c r="L63">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M63">
+        <v>10.80117423</v>
+      </c>
+      <c r="N63">
+        <v>-10.29117423</v>
+      </c>
+      <c r="O63">
+        <v>-3.1902640113</v>
+      </c>
+      <c r="P63">
+        <v>-7.100910218699999</v>
+      </c>
+      <c r="Q63">
+        <v>-4.300910218699999</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1063576252748769</v>
+      </c>
+      <c r="T63">
+        <v>1.359307470430286</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.01463729744872378</v>
+      </c>
+      <c r="W63">
+        <v>0.1810111284586695</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.0472170885442702</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.1536402622169904</v>
+      </c>
+      <c r="C64">
+        <v>-32.86317067700259</v>
+      </c>
+      <c r="D64">
+        <v>25.09862932299741</v>
+      </c>
+      <c r="E64">
+        <v>58.3718</v>
+      </c>
+      <c r="F64">
+        <v>59.7618</v>
+      </c>
+      <c r="G64">
+        <v>1.8</v>
+      </c>
+      <c r="H64">
+        <v>95</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>3.31</v>
+      </c>
+      <c r="K64">
+        <v>2.8</v>
+      </c>
+      <c r="L64">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M64">
+        <v>10.97824266</v>
+      </c>
+      <c r="N64">
+        <v>-10.46824266</v>
+      </c>
+      <c r="O64">
+        <v>-3.2451552246</v>
+      </c>
+      <c r="P64">
+        <v>-7.223087435400001</v>
+      </c>
+      <c r="Q64">
+        <v>-4.423087435400001</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1089117733084263</v>
+      </c>
+      <c r="T64">
+        <v>1.395078719652136</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.01440121200600243</v>
+      </c>
+      <c r="W64">
+        <v>0.1810544973544974</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.04645552260000785</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1553842622169904</v>
+      </c>
+      <c r="C65">
+        <v>-34.1267060304282</v>
+      </c>
+      <c r="D65">
+        <v>24.79899396957181</v>
+      </c>
+      <c r="E65">
+        <v>59.3357</v>
+      </c>
+      <c r="F65">
+        <v>60.7257</v>
+      </c>
+      <c r="G65">
+        <v>1.8</v>
+      </c>
+      <c r="H65">
+        <v>95</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>3.31</v>
+      </c>
+      <c r="K65">
+        <v>2.8</v>
+      </c>
+      <c r="L65">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M65">
+        <v>11.15531109</v>
+      </c>
+      <c r="N65">
+        <v>-10.64531109</v>
+      </c>
+      <c r="O65">
+        <v>-3.3000464379</v>
+      </c>
+      <c r="P65">
+        <v>-7.345264652100001</v>
+      </c>
+      <c r="Q65">
+        <v>-4.545264652100001</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1116039833978433</v>
+      </c>
+      <c r="T65">
+        <v>1.432783549913005</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.01417262133924049</v>
+      </c>
+      <c r="W65">
+        <v>0.1810964894599815</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.04571813335238861</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1571282622169904</v>
+      </c>
+      <c r="C66">
+        <v>-35.38317150359495</v>
+      </c>
+      <c r="D66">
+        <v>24.50642849640505</v>
+      </c>
+      <c r="E66">
+        <v>60.2996</v>
+      </c>
+      <c r="F66">
+        <v>61.6896</v>
+      </c>
+      <c r="G66">
+        <v>1.8</v>
+      </c>
+      <c r="H66">
+        <v>95</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>3.31</v>
+      </c>
+      <c r="K66">
+        <v>2.8</v>
+      </c>
+      <c r="L66">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M66">
+        <v>11.33237952</v>
+      </c>
+      <c r="N66">
+        <v>-10.82237952</v>
+      </c>
+      <c r="O66">
+        <v>-3.3549376512</v>
+      </c>
+      <c r="P66">
+        <v>-7.4674418688</v>
+      </c>
+      <c r="Q66">
+        <v>-4.6674418688</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.11444576071445</v>
+      </c>
+      <c r="T66">
+        <v>1.472583092966144</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.01395117413081485</v>
+      </c>
+      <c r="W66">
+        <v>0.1811371693121693</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.04500378751875755</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1588722622169904</v>
+      </c>
+      <c r="C67">
+        <v>-36.63281439913081</v>
+      </c>
+      <c r="D67">
+        <v>24.2206856008692</v>
+      </c>
+      <c r="E67">
+        <v>61.2635</v>
+      </c>
+      <c r="F67">
+        <v>62.6535</v>
+      </c>
+      <c r="G67">
+        <v>1.8</v>
+      </c>
+      <c r="H67">
+        <v>95</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>3.31</v>
+      </c>
+      <c r="K67">
+        <v>2.8</v>
+      </c>
+      <c r="L67">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M67">
+        <v>11.50944795</v>
+      </c>
+      <c r="N67">
+        <v>-10.99944795</v>
+      </c>
+      <c r="O67">
+        <v>-3.4098288645</v>
+      </c>
+      <c r="P67">
+        <v>-7.589619085500001</v>
+      </c>
+      <c r="Q67">
+        <v>-4.789619085500001</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1174499253062915</v>
+      </c>
+      <c r="T67">
+        <v>1.514656895622319</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.01373654068264847</v>
+      </c>
+      <c r="W67">
+        <v>0.1811765974765975</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.04431142155693057</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1606162622169904</v>
+      </c>
+      <c r="C68">
+        <v>-37.87587061848905</v>
+      </c>
+      <c r="D68">
+        <v>23.94152938151096</v>
+      </c>
+      <c r="E68">
+        <v>62.2274</v>
+      </c>
+      <c r="F68">
+        <v>63.6174</v>
+      </c>
+      <c r="G68">
+        <v>1.8</v>
+      </c>
+      <c r="H68">
+        <v>95</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>3.31</v>
+      </c>
+      <c r="K68">
+        <v>2.8</v>
+      </c>
+      <c r="L68">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M68">
+        <v>11.68651638</v>
+      </c>
+      <c r="N68">
+        <v>-11.17651638</v>
+      </c>
+      <c r="O68">
+        <v>-3.4647200778</v>
+      </c>
+      <c r="P68">
+        <v>-7.711796302200001</v>
+      </c>
+      <c r="Q68">
+        <v>-4.911796302200001</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1206308054623589</v>
+      </c>
+      <c r="T68">
+        <v>1.559205627846505</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.01352841127836592</v>
+      </c>
+      <c r="W68">
+        <v>0.1812148308481642</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.04364003638182556</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1623602622169904</v>
+      </c>
+      <c r="C69">
+        <v>-39.11256531148494</v>
+      </c>
+      <c r="D69">
+        <v>23.66873468851506</v>
+      </c>
+      <c r="E69">
+        <v>63.1913</v>
+      </c>
+      <c r="F69">
+        <v>64.5813</v>
+      </c>
+      <c r="G69">
+        <v>1.8</v>
+      </c>
+      <c r="H69">
+        <v>95</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>3.31</v>
+      </c>
+      <c r="K69">
+        <v>2.8</v>
+      </c>
+      <c r="L69">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M69">
+        <v>11.86358481</v>
+      </c>
+      <c r="N69">
+        <v>-11.35358481</v>
+      </c>
+      <c r="O69">
+        <v>-3.5196112911</v>
+      </c>
+      <c r="P69">
+        <v>-7.833973518900001</v>
+      </c>
+      <c r="Q69">
+        <v>-5.033973518900001</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1240044662339455</v>
+      </c>
+      <c r="T69">
+        <v>1.606454283235793</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.01332649469212165</v>
+      </c>
+      <c r="W69">
+        <v>0.1812519229250573</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.04298869255523108</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1641042622169904</v>
+      </c>
+      <c r="C70">
+        <v>-40.34311348192686</v>
+      </c>
+      <c r="D70">
+        <v>23.40208651807314</v>
+      </c>
+      <c r="E70">
+        <v>64.15520000000001</v>
+      </c>
+      <c r="F70">
+        <v>65.54520000000001</v>
+      </c>
+      <c r="G70">
+        <v>1.8</v>
+      </c>
+      <c r="H70">
+        <v>95</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>3.31</v>
+      </c>
+      <c r="K70">
+        <v>2.8</v>
+      </c>
+      <c r="L70">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M70">
+        <v>12.04065324</v>
+      </c>
+      <c r="N70">
+        <v>-11.53065324</v>
+      </c>
+      <c r="O70">
+        <v>-3.5745025044</v>
+      </c>
+      <c r="P70">
+        <v>-7.956150735600001</v>
+      </c>
+      <c r="Q70">
+        <v>-5.156150735600002</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1275889808037563</v>
+      </c>
+      <c r="T70">
+        <v>1.656655979586912</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.01313051682900222</v>
+      </c>
+      <c r="W70">
+        <v>0.1812879240585123</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.04235650590000706</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1658482622169904</v>
+      </c>
+      <c r="C71">
+        <v>-41.56772055276581</v>
+      </c>
+      <c r="D71">
+        <v>23.1413794472342</v>
+      </c>
+      <c r="E71">
+        <v>65.1191</v>
+      </c>
+      <c r="F71">
+        <v>66.5091</v>
+      </c>
+      <c r="G71">
+        <v>1.8</v>
+      </c>
+      <c r="H71">
+        <v>95</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>3.31</v>
+      </c>
+      <c r="K71">
+        <v>2.8</v>
+      </c>
+      <c r="L71">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M71">
+        <v>12.21772167</v>
+      </c>
+      <c r="N71">
+        <v>-11.70772167</v>
+      </c>
+      <c r="O71">
+        <v>-3.629393717700001</v>
+      </c>
+      <c r="P71">
+        <v>-8.0783279523</v>
+      </c>
+      <c r="Q71">
+        <v>-5.278327952300001</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.131404754378071</v>
+      </c>
+      <c r="T71">
+        <v>1.710096495057458</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.01294021948365436</v>
+      </c>
+      <c r="W71">
+        <v>0.1813228816808527</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.04174264349565915</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1675922622169904</v>
+      </c>
+      <c r="C72">
+        <v>-42.78658289388552</v>
+      </c>
+      <c r="D72">
+        <v>22.8864171061145</v>
+      </c>
+      <c r="E72">
+        <v>66.08300000000001</v>
+      </c>
+      <c r="F72">
+        <v>67.47300000000001</v>
+      </c>
+      <c r="G72">
+        <v>1.8</v>
+      </c>
+      <c r="H72">
+        <v>95</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>3.31</v>
+      </c>
+      <c r="K72">
+        <v>2.8</v>
+      </c>
+      <c r="L72">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M72">
+        <v>12.3947901</v>
+      </c>
+      <c r="N72">
+        <v>-11.8847901</v>
+      </c>
+      <c r="O72">
+        <v>-3.684284931000001</v>
+      </c>
+      <c r="P72">
+        <v>-8.200505169000003</v>
+      </c>
+      <c r="Q72">
+        <v>-5.400505169000003</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1354749128573401</v>
+      </c>
+      <c r="T72">
+        <v>1.767099711559373</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.01275535920531644</v>
+      </c>
+      <c r="W72">
+        <v>0.1813568405139834</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.0411463200171498</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1693362622169904</v>
+      </c>
+      <c r="C73">
+        <v>-43.99988831538268</v>
+      </c>
+      <c r="D73">
+        <v>22.63701168461731</v>
+      </c>
+      <c r="E73">
+        <v>67.04689999999999</v>
+      </c>
+      <c r="F73">
+        <v>68.43689999999999</v>
+      </c>
+      <c r="G73">
+        <v>1.8</v>
+      </c>
+      <c r="H73">
+        <v>95</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>3.31</v>
+      </c>
+      <c r="K73">
+        <v>2.8</v>
+      </c>
+      <c r="L73">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M73">
+        <v>12.57185853</v>
+      </c>
+      <c r="N73">
+        <v>-12.06185853</v>
+      </c>
+      <c r="O73">
+        <v>-3.7391761443</v>
+      </c>
+      <c r="P73">
+        <v>-8.322682385699999</v>
+      </c>
+      <c r="Q73">
+        <v>-5.522682385699999</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1398257719213862</v>
+      </c>
+      <c r="T73">
+        <v>1.828034184371764</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.01257570625876269</v>
+      </c>
+      <c r="W73">
+        <v>0.1813898427602653</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.0405667943831054</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1710802622169904</v>
+      </c>
+      <c r="C74">
+        <v>-45.20781652894203</v>
+      </c>
+      <c r="D74">
+        <v>22.39298347105797</v>
+      </c>
+      <c r="E74">
+        <v>68.0108</v>
+      </c>
+      <c r="F74">
+        <v>69.4008</v>
+      </c>
+      <c r="G74">
+        <v>1.8</v>
+      </c>
+      <c r="H74">
+        <v>95</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>3.31</v>
+      </c>
+      <c r="K74">
+        <v>2.8</v>
+      </c>
+      <c r="L74">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M74">
+        <v>12.74892696</v>
+      </c>
+      <c r="N74">
+        <v>-12.23892696</v>
+      </c>
+      <c r="O74">
+        <v>-3.7940673576</v>
+      </c>
+      <c r="P74">
+        <v>-8.444859602400001</v>
+      </c>
+      <c r="Q74">
+        <v>-5.644859602400001</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1444874066328643</v>
+      </c>
+      <c r="T74">
+        <v>1.893321119527899</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.01240104367183543</v>
+      </c>
+      <c r="W74">
+        <v>0.1814219282774838</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.04000336668334004</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1728242622169904</v>
+      </c>
+      <c r="C75">
+        <v>-46.41053957968726</v>
+      </c>
+      <c r="D75">
+        <v>22.15416042031274</v>
+      </c>
+      <c r="E75">
+        <v>68.9747</v>
+      </c>
+      <c r="F75">
+        <v>70.3647</v>
+      </c>
+      <c r="G75">
+        <v>1.8</v>
+      </c>
+      <c r="H75">
+        <v>95</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>3.31</v>
+      </c>
+      <c r="K75">
+        <v>2.8</v>
+      </c>
+      <c r="L75">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M75">
+        <v>12.92599539</v>
+      </c>
+      <c r="N75">
+        <v>-12.41599539</v>
+      </c>
+      <c r="O75">
+        <v>-3.8489585709</v>
+      </c>
+      <c r="P75">
+        <v>-8.5670368191</v>
+      </c>
+      <c r="Q75">
+        <v>-5.7670368191</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1494943476192667</v>
+      </c>
+      <c r="T75">
+        <v>1.963444123954858</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.01223116636126234</v>
+      </c>
+      <c r="W75">
+        <v>0.1814531347394361</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.03945537535891075</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1745682622169904</v>
+      </c>
+      <c r="C76">
+        <v>-47.60822225068973</v>
+      </c>
+      <c r="D76">
+        <v>21.92037774931027</v>
+      </c>
+      <c r="E76">
+        <v>69.93859999999999</v>
+      </c>
+      <c r="F76">
+        <v>71.32859999999999</v>
+      </c>
+      <c r="G76">
+        <v>1.8</v>
+      </c>
+      <c r="H76">
+        <v>95</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>3.31</v>
+      </c>
+      <c r="K76">
+        <v>2.8</v>
+      </c>
+      <c r="L76">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M76">
+        <v>13.10306382</v>
+      </c>
+      <c r="N76">
+        <v>-12.59306382</v>
+      </c>
+      <c r="O76">
+        <v>-3.9038497842</v>
+      </c>
+      <c r="P76">
+        <v>-8.689214035799999</v>
+      </c>
+      <c r="Q76">
+        <v>-5.889214035799999</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1548864379123154</v>
+      </c>
+      <c r="T76">
+        <v>2.03896120564543</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.01206588032935339</v>
+      </c>
+      <c r="W76">
+        <v>0.1814834977834978</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.03892219461081736</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1763122622169904</v>
+      </c>
+      <c r="C77">
+        <v>-48.80102244213273</v>
+      </c>
+      <c r="D77">
+        <v>21.69147755786727</v>
+      </c>
+      <c r="E77">
+        <v>70.9025</v>
+      </c>
+      <c r="F77">
+        <v>72.2925</v>
+      </c>
+      <c r="G77">
+        <v>1.8</v>
+      </c>
+      <c r="H77">
+        <v>95</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>3.31</v>
+      </c>
+      <c r="K77">
+        <v>2.8</v>
+      </c>
+      <c r="L77">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M77">
+        <v>13.28013225</v>
+      </c>
+      <c r="N77">
+        <v>-12.77013225</v>
+      </c>
+      <c r="O77">
+        <v>-3.958740997500001</v>
+      </c>
+      <c r="P77">
+        <v>-8.811391252500002</v>
+      </c>
+      <c r="Q77">
+        <v>-6.011391252500002</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.160709895428808</v>
+      </c>
+      <c r="T77">
+        <v>2.120519653871247</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.01190500192496201</v>
+      </c>
+      <c r="W77">
+        <v>0.1815130511463845</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.03840323201600648</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1780562622169904</v>
+      </c>
+      <c r="C78">
+        <v>-49.98909152696514</v>
+      </c>
+      <c r="D78">
+        <v>21.46730847303486</v>
+      </c>
+      <c r="E78">
+        <v>71.8664</v>
+      </c>
+      <c r="F78">
+        <v>73.2564</v>
+      </c>
+      <c r="G78">
+        <v>1.8</v>
+      </c>
+      <c r="H78">
+        <v>95</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>3.31</v>
+      </c>
+      <c r="K78">
+        <v>2.8</v>
+      </c>
+      <c r="L78">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M78">
+        <v>13.45720068</v>
+      </c>
+      <c r="N78">
+        <v>-12.94720068</v>
+      </c>
+      <c r="O78">
+        <v>-4.0136322108</v>
+      </c>
+      <c r="P78">
+        <v>-8.933568469200001</v>
+      </c>
+      <c r="Q78">
+        <v>-6.133568469200001</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1670186410716751</v>
+      </c>
+      <c r="T78">
+        <v>2.208874639449216</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.01174835716279146</v>
+      </c>
+      <c r="W78">
+        <v>0.1815418267891952</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.03789792633158529</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1798002622169904</v>
+      </c>
+      <c r="C79">
+        <v>-51.17257468472783</v>
+      </c>
+      <c r="D79">
+        <v>21.24772531527218</v>
+      </c>
+      <c r="E79">
+        <v>72.83030000000001</v>
+      </c>
+      <c r="F79">
+        <v>74.22030000000001</v>
+      </c>
+      <c r="G79">
+        <v>1.8</v>
+      </c>
+      <c r="H79">
+        <v>95</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>3.31</v>
+      </c>
+      <c r="K79">
+        <v>2.8</v>
+      </c>
+      <c r="L79">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M79">
+        <v>13.63426911</v>
+      </c>
+      <c r="N79">
+        <v>-13.12426911</v>
+      </c>
+      <c r="O79">
+        <v>-4.0685234241</v>
+      </c>
+      <c r="P79">
+        <v>-9.055745685900002</v>
+      </c>
+      <c r="Q79">
+        <v>-6.255745685900002</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1738759732921827</v>
+      </c>
+      <c r="T79">
+        <v>2.304912667251355</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.01159578109574222</v>
+      </c>
+      <c r="W79">
+        <v>0.1815698550127122</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.0374057454701362</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1815442622169904</v>
+      </c>
+      <c r="C80">
+        <v>-52.35161121509974</v>
+      </c>
+      <c r="D80">
+        <v>21.03258878490026</v>
+      </c>
+      <c r="E80">
+        <v>73.7942</v>
+      </c>
+      <c r="F80">
+        <v>75.1842</v>
+      </c>
+      <c r="G80">
+        <v>1.8</v>
+      </c>
+      <c r="H80">
+        <v>95</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>3.31</v>
+      </c>
+      <c r="K80">
+        <v>2.8</v>
+      </c>
+      <c r="L80">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M80">
+        <v>13.81133754</v>
+      </c>
+      <c r="N80">
+        <v>-13.30133754</v>
+      </c>
+      <c r="O80">
+        <v>-4.1234146374</v>
+      </c>
+      <c r="P80">
+        <v>-9.177922902600001</v>
+      </c>
+      <c r="Q80">
+        <v>-6.377922902600001</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1813566993509182</v>
+      </c>
+      <c r="T80">
+        <v>2.40968142485369</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.01144711723554039</v>
+      </c>
+      <c r="W80">
+        <v>0.1815971645638312</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.03692618463077546</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1832882622169904</v>
+      </c>
+      <c r="C81">
+        <v>-53.52633483258677</v>
+      </c>
+      <c r="D81">
+        <v>20.82176516741323</v>
+      </c>
+      <c r="E81">
+        <v>74.7581</v>
+      </c>
+      <c r="F81">
+        <v>76.1481</v>
+      </c>
+      <c r="G81">
+        <v>1.8</v>
+      </c>
+      <c r="H81">
+        <v>95</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>3.31</v>
+      </c>
+      <c r="K81">
+        <v>2.8</v>
+      </c>
+      <c r="L81">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M81">
+        <v>13.98840597</v>
+      </c>
+      <c r="N81">
+        <v>-13.47840597</v>
+      </c>
+      <c r="O81">
+        <v>-4.1783058507</v>
+      </c>
+      <c r="P81">
+        <v>-9.300100119300001</v>
+      </c>
+      <c r="Q81">
+        <v>-6.500100119300002</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.1895498755104858</v>
+      </c>
+      <c r="T81">
+        <v>2.524428159370532</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.011302217017369</v>
+      </c>
+      <c r="W81">
+        <v>0.1816237827339093</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.03645876457215802</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1850322622169904</v>
+      </c>
+      <c r="C82">
+        <v>-54.69687394366321</v>
+      </c>
+      <c r="D82">
+        <v>20.61512605633681</v>
+      </c>
+      <c r="E82">
+        <v>75.72200000000001</v>
+      </c>
+      <c r="F82">
+        <v>77.11200000000001</v>
+      </c>
+      <c r="G82">
+        <v>1.8</v>
+      </c>
+      <c r="H82">
+        <v>95</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>3.31</v>
+      </c>
+      <c r="K82">
+        <v>2.8</v>
+      </c>
+      <c r="L82">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M82">
+        <v>14.1654744</v>
+      </c>
+      <c r="N82">
+        <v>-13.6554744</v>
+      </c>
+      <c r="O82">
+        <v>-4.233197064000001</v>
+      </c>
+      <c r="P82">
+        <v>-9.422277336000002</v>
+      </c>
+      <c r="Q82">
+        <v>-6.622277336000002</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.1985623692860101</v>
+      </c>
+      <c r="T82">
+        <v>2.650649567339059</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.01116093930465188</v>
+      </c>
+      <c r="W82">
+        <v>0.1816497354497354</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.03600303001500604</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1867762622169904</v>
+      </c>
+      <c r="C83">
+        <v>-55.86335190757306</v>
+      </c>
+      <c r="D83">
+        <v>20.41254809242694</v>
+      </c>
+      <c r="E83">
+        <v>76.6859</v>
+      </c>
+      <c r="F83">
+        <v>78.0759</v>
+      </c>
+      <c r="G83">
+        <v>1.8</v>
+      </c>
+      <c r="H83">
+        <v>95</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>3.31</v>
+      </c>
+      <c r="K83">
+        <v>2.8</v>
+      </c>
+      <c r="L83">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M83">
+        <v>14.34254283</v>
+      </c>
+      <c r="N83">
+        <v>-13.83254283</v>
+      </c>
+      <c r="O83">
+        <v>-4.2880882773</v>
+      </c>
+      <c r="P83">
+        <v>-9.544454552700001</v>
+      </c>
+      <c r="Q83">
+        <v>-6.744454552700001</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2085235466168527</v>
+      </c>
+      <c r="T83">
+        <v>2.790157439304273</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.01102314993052038</v>
+      </c>
+      <c r="W83">
+        <v>0.1816750473577634</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.03555854816296888</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1885202622169904</v>
+      </c>
+      <c r="C84">
+        <v>-57.02588728190417</v>
+      </c>
+      <c r="D84">
+        <v>20.21391271809583</v>
+      </c>
+      <c r="E84">
+        <v>77.6498</v>
+      </c>
+      <c r="F84">
+        <v>79.0398</v>
+      </c>
+      <c r="G84">
+        <v>1.8</v>
+      </c>
+      <c r="H84">
+        <v>95</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>3.31</v>
+      </c>
+      <c r="K84">
+        <v>2.8</v>
+      </c>
+      <c r="L84">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M84">
+        <v>14.51961126</v>
+      </c>
+      <c r="N84">
+        <v>-14.00961126</v>
+      </c>
+      <c r="O84">
+        <v>-4.3429794906</v>
+      </c>
+      <c r="P84">
+        <v>-9.666631769399999</v>
+      </c>
+      <c r="Q84">
+        <v>-6.866631769399999</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2195915214289001</v>
+      </c>
+      <c r="T84">
+        <v>2.945166185932288</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.01088872127283111</v>
+      </c>
+      <c r="W84">
+        <v>0.1816997419021809</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.03512490733171325</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1902642622169904</v>
+      </c>
+      <c r="C85">
+        <v>-58.18459405396224</v>
+      </c>
+      <c r="D85">
+        <v>20.01910594603777</v>
+      </c>
+      <c r="E85">
+        <v>78.61370000000001</v>
+      </c>
+      <c r="F85">
+        <v>80.00370000000001</v>
+      </c>
+      <c r="G85">
+        <v>1.8</v>
+      </c>
+      <c r="H85">
+        <v>95</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>3.31</v>
+      </c>
+      <c r="K85">
+        <v>2.8</v>
+      </c>
+      <c r="L85">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M85">
+        <v>14.69667969</v>
+      </c>
+      <c r="N85">
+        <v>-14.18667969</v>
+      </c>
+      <c r="O85">
+        <v>-4.397870703900001</v>
+      </c>
+      <c r="P85">
+        <v>-9.788808986100001</v>
+      </c>
+      <c r="Q85">
+        <v>-6.988808986100001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2319616109247178</v>
+      </c>
+      <c r="T85">
+        <v>3.118411255693011</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.01075753185990543</v>
+      </c>
+      <c r="W85">
+        <v>0.1817238413973354</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.03470171567711422</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1920082622169904</v>
+      </c>
+      <c r="C86">
+        <v>-59.33958185889371</v>
+      </c>
+      <c r="D86">
+        <v>19.82801814110629</v>
+      </c>
+      <c r="E86">
+        <v>79.5776</v>
+      </c>
+      <c r="F86">
+        <v>80.9676</v>
+      </c>
+      <c r="G86">
+        <v>1.8</v>
+      </c>
+      <c r="H86">
+        <v>95</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>3.31</v>
+      </c>
+      <c r="K86">
+        <v>2.8</v>
+      </c>
+      <c r="L86">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M86">
+        <v>14.87374812</v>
+      </c>
+      <c r="N86">
+        <v>-14.36374812</v>
+      </c>
+      <c r="O86">
+        <v>-4.4527619172</v>
+      </c>
+      <c r="P86">
+        <v>-9.9109862028</v>
+      </c>
+      <c r="Q86">
+        <v>-7.1109862028</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2458779616075125</v>
+      </c>
+      <c r="T86">
+        <v>3.313311959173823</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.01062946600443036</v>
+      </c>
+      <c r="W86">
+        <v>0.1817473670949862</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.03428860001429146</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1937522622169904</v>
+      </c>
+      <c r="C87">
+        <v>-60.49095618543468</v>
+      </c>
+      <c r="D87">
+        <v>19.64054381456532</v>
+      </c>
+      <c r="E87">
+        <v>80.5415</v>
+      </c>
+      <c r="F87">
+        <v>81.9315</v>
+      </c>
+      <c r="G87">
+        <v>1.8</v>
+      </c>
+      <c r="H87">
+        <v>95</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>3.31</v>
+      </c>
+      <c r="K87">
+        <v>2.8</v>
+      </c>
+      <c r="L87">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M87">
+        <v>15.05081655</v>
+      </c>
+      <c r="N87">
+        <v>-14.54081655</v>
+      </c>
+      <c r="O87">
+        <v>-4.5076531305</v>
+      </c>
+      <c r="P87">
+        <v>-10.0331634195</v>
+      </c>
+      <c r="Q87">
+        <v>-7.233163419499999</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.26164982571468</v>
+      </c>
+      <c r="T87">
+        <v>3.534199423118745</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.01050441346320177</v>
+      </c>
+      <c r="W87">
+        <v>0.1817703392468099</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.03388520472000567</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1954962622169903</v>
+      </c>
+      <c r="C88">
+        <v>-61.63881857009675</v>
+      </c>
+      <c r="D88">
+        <v>19.45658142990325</v>
+      </c>
+      <c r="E88">
+        <v>81.50539999999999</v>
+      </c>
+      <c r="F88">
+        <v>82.8954</v>
+      </c>
+      <c r="G88">
+        <v>1.8</v>
+      </c>
+      <c r="H88">
+        <v>95</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>3.31</v>
+      </c>
+      <c r="K88">
+        <v>2.8</v>
+      </c>
+      <c r="L88">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M88">
+        <v>15.22788498</v>
+      </c>
+      <c r="N88">
+        <v>-14.71788498</v>
+      </c>
+      <c r="O88">
+        <v>-4.5625443438</v>
+      </c>
+      <c r="P88">
+        <v>-10.1553406362</v>
+      </c>
+      <c r="Q88">
+        <v>-7.355340636199998</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.2796748132657286</v>
+      </c>
+      <c r="T88">
+        <v>3.786642239055798</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.0103822691206064</v>
+      </c>
+      <c r="W88">
+        <v>0.1817927771625446</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.03349119071163353</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1972402622169904</v>
+      </c>
+      <c r="C89">
+        <v>-62.78326678054128</v>
+      </c>
+      <c r="D89">
+        <v>19.27603321945872</v>
+      </c>
+      <c r="E89">
+        <v>82.4693</v>
+      </c>
+      <c r="F89">
+        <v>83.8593</v>
+      </c>
+      <c r="G89">
+        <v>1.8</v>
+      </c>
+      <c r="H89">
+        <v>95</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>3.31</v>
+      </c>
+      <c r="K89">
+        <v>2.8</v>
+      </c>
+      <c r="L89">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M89">
+        <v>15.40495341</v>
+      </c>
+      <c r="N89">
+        <v>-14.89495341</v>
+      </c>
+      <c r="O89">
+        <v>-4.6174355571</v>
+      </c>
+      <c r="P89">
+        <v>-10.2775178529</v>
+      </c>
+      <c r="Q89">
+        <v>-7.477517852900001</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3004728758246308</v>
+      </c>
+      <c r="T89">
+        <v>4.077922411290859</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.01026293269393277</v>
+      </c>
+      <c r="W89">
+        <v>0.1818146992641246</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.03310623449655725</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1989842622169904</v>
+      </c>
+      <c r="C90">
+        <v>-63.92439498883765</v>
+      </c>
+      <c r="D90">
+        <v>19.09880501116236</v>
+      </c>
+      <c r="E90">
+        <v>83.4332</v>
+      </c>
+      <c r="F90">
+        <v>84.8232</v>
+      </c>
+      <c r="G90">
+        <v>1.8</v>
+      </c>
+      <c r="H90">
+        <v>95</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>3.31</v>
+      </c>
+      <c r="K90">
+        <v>2.8</v>
+      </c>
+      <c r="L90">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M90">
+        <v>15.58202184</v>
+      </c>
+      <c r="N90">
+        <v>-15.07202184</v>
+      </c>
+      <c r="O90">
+        <v>-4.6723267704</v>
+      </c>
+      <c r="P90">
+        <v>-10.3996950696</v>
+      </c>
+      <c r="Q90">
+        <v>-7.5996950696</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3247372821433501</v>
+      </c>
+      <c r="T90">
+        <v>4.417749278898431</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.01014630845877444</v>
+      </c>
+      <c r="W90">
+        <v>0.1818361231361232</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.03273002728636909</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2007282622169904</v>
+      </c>
+      <c r="C91">
+        <v>-65.06229393525084</v>
+      </c>
+      <c r="D91">
+        <v>18.92480606474915</v>
+      </c>
+      <c r="E91">
+        <v>84.39709999999999</v>
+      </c>
+      <c r="F91">
+        <v>85.7871</v>
+      </c>
+      <c r="G91">
+        <v>1.8</v>
+      </c>
+      <c r="H91">
+        <v>95</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>3.31</v>
+      </c>
+      <c r="K91">
+        <v>2.8</v>
+      </c>
+      <c r="L91">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M91">
+        <v>15.75909027</v>
+      </c>
+      <c r="N91">
+        <v>-15.24909027</v>
+      </c>
+      <c r="O91">
+        <v>-4.7272179837</v>
+      </c>
+      <c r="P91">
+        <v>-10.5218722863</v>
+      </c>
+      <c r="Q91">
+        <v>-7.721872286299999</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3534133987018364</v>
+      </c>
+      <c r="T91">
+        <v>4.819362849707379</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.01003230499294551</v>
+      </c>
+      <c r="W91">
+        <v>0.1818570655727959</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.03236227417079196</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2024722622169904</v>
+      </c>
+      <c r="C92">
+        <v>-66.19705108315674</v>
+      </c>
+      <c r="D92">
+        <v>18.75394891684327</v>
+      </c>
+      <c r="E92">
+        <v>85.361</v>
+      </c>
+      <c r="F92">
+        <v>86.751</v>
+      </c>
+      <c r="G92">
+        <v>1.8</v>
+      </c>
+      <c r="H92">
+        <v>95</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>3.31</v>
+      </c>
+      <c r="K92">
+        <v>2.8</v>
+      </c>
+      <c r="L92">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M92">
+        <v>15.9361587</v>
+      </c>
+      <c r="N92">
+        <v>-15.4261587</v>
+      </c>
+      <c r="O92">
+        <v>-4.782109197</v>
+      </c>
+      <c r="P92">
+        <v>-10.644049503</v>
+      </c>
+      <c r="Q92">
+        <v>-7.844049503000002</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.3878247385720201</v>
+      </c>
+      <c r="T92">
+        <v>5.301299134678118</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.009920834937468341</v>
+      </c>
+      <c r="W92">
+        <v>0.1818775426219871</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.03200269334667205</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2042162622169904</v>
+      </c>
+      <c r="C93">
+        <v>-67.32875076564071</v>
+      </c>
+      <c r="D93">
+        <v>18.58614923435929</v>
+      </c>
+      <c r="E93">
+        <v>86.3249</v>
+      </c>
+      <c r="F93">
+        <v>87.7149</v>
+      </c>
+      <c r="G93">
+        <v>1.8</v>
+      </c>
+      <c r="H93">
+        <v>95</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>3.31</v>
+      </c>
+      <c r="K93">
+        <v>2.8</v>
+      </c>
+      <c r="L93">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M93">
+        <v>16.11322713</v>
+      </c>
+      <c r="N93">
+        <v>-15.60322713</v>
+      </c>
+      <c r="O93">
+        <v>-4.8370004103</v>
+      </c>
+      <c r="P93">
+        <v>-10.7662267197</v>
+      </c>
+      <c r="Q93">
+        <v>-7.966226719699999</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4298830428578002</v>
+      </c>
+      <c r="T93">
+        <v>5.890332371864575</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.00981181477332034</v>
+      </c>
+      <c r="W93">
+        <v>0.181897569626141</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.03165101539780757</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2059602622169904</v>
+      </c>
+      <c r="C94">
+        <v>-68.45747432429619</v>
+      </c>
+      <c r="D94">
+        <v>18.42132567570382</v>
+      </c>
+      <c r="E94">
+        <v>87.28880000000001</v>
+      </c>
+      <c r="F94">
+        <v>88.67880000000001</v>
+      </c>
+      <c r="G94">
+        <v>1.8</v>
+      </c>
+      <c r="H94">
+        <v>95</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>3.31</v>
+      </c>
+      <c r="K94">
+        <v>2.8</v>
+      </c>
+      <c r="L94">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M94">
+        <v>16.29029556</v>
+      </c>
+      <c r="N94">
+        <v>-15.78029556</v>
+      </c>
+      <c r="O94">
+        <v>-4.8918916236</v>
+      </c>
+      <c r="P94">
+        <v>-10.8884039364</v>
+      </c>
+      <c r="Q94">
+        <v>-8.088403936399999</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.4824559232150253</v>
+      </c>
+      <c r="T94">
+        <v>6.62662391834765</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.009705164612740768</v>
+      </c>
+      <c r="W94">
+        <v>0.1819171612606395</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.03130698262174436</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2077042622169904</v>
+      </c>
+      <c r="C95">
+        <v>-69.58330024070261</v>
+      </c>
+      <c r="D95">
+        <v>18.25939975929738</v>
+      </c>
+      <c r="E95">
+        <v>88.2527</v>
+      </c>
+      <c r="F95">
+        <v>89.6427</v>
+      </c>
+      <c r="G95">
+        <v>1.8</v>
+      </c>
+      <c r="H95">
+        <v>95</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>3.31</v>
+      </c>
+      <c r="K95">
+        <v>2.8</v>
+      </c>
+      <c r="L95">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M95">
+        <v>16.46736399</v>
+      </c>
+      <c r="N95">
+        <v>-15.95736399</v>
+      </c>
+      <c r="O95">
+        <v>-4.946782836900001</v>
+      </c>
+      <c r="P95">
+        <v>-11.0105811531</v>
+      </c>
+      <c r="Q95">
+        <v>-8.210581153100001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.5500496265314576</v>
+      </c>
+      <c r="T95">
+        <v>7.573284478111601</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.009600808004001619</v>
+      </c>
+      <c r="W95">
+        <v>0.1819363315696649</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.03097034840000523</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2094482622169904</v>
+      </c>
+      <c r="C96">
+        <v>-70.70630426102976</v>
+      </c>
+      <c r="D96">
+        <v>18.10029573897024</v>
+      </c>
+      <c r="E96">
+        <v>89.2166</v>
+      </c>
+      <c r="F96">
+        <v>90.6066</v>
+      </c>
+      <c r="G96">
+        <v>1.8</v>
+      </c>
+      <c r="H96">
+        <v>95</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>3.31</v>
+      </c>
+      <c r="K96">
+        <v>2.8</v>
+      </c>
+      <c r="L96">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M96">
+        <v>16.64443242</v>
+      </c>
+      <c r="N96">
+        <v>-16.13443242</v>
+      </c>
+      <c r="O96">
+        <v>-5.0016740502</v>
+      </c>
+      <c r="P96">
+        <v>-11.1327583698</v>
+      </c>
+      <c r="Q96">
+        <v>-8.332758369800001</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.6401745642867007</v>
+      </c>
+      <c r="T96">
+        <v>8.835498557796869</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.009498671748639902</v>
+      </c>
+      <c r="W96">
+        <v>0.1819550939997749</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.03064087660851589</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2111922622169904</v>
+      </c>
+      <c r="C97">
+        <v>-71.82655951418373</v>
+      </c>
+      <c r="D97">
+        <v>17.94394048581628</v>
+      </c>
+      <c r="E97">
+        <v>90.18050000000001</v>
+      </c>
+      <c r="F97">
+        <v>91.57050000000001</v>
+      </c>
+      <c r="G97">
+        <v>1.8</v>
+      </c>
+      <c r="H97">
+        <v>95</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>3.31</v>
+      </c>
+      <c r="K97">
+        <v>2.8</v>
+      </c>
+      <c r="L97">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M97">
+        <v>16.82150085</v>
+      </c>
+      <c r="N97">
+        <v>-16.31150085</v>
+      </c>
+      <c r="O97">
+        <v>-5.0565652635</v>
+      </c>
+      <c r="P97">
+        <v>-11.2549355865</v>
+      </c>
+      <c r="Q97">
+        <v>-8.4549355865</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.7663494771440412</v>
+      </c>
+      <c r="T97">
+        <v>10.60259826935625</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.009398685730233164</v>
+      </c>
+      <c r="W97">
+        <v>0.1819734614313562</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.03031834106526832</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2129362622169904</v>
+      </c>
+      <c r="C98">
+        <v>-72.94413662388197</v>
+      </c>
+      <c r="D98">
+        <v>17.79026337611802</v>
+      </c>
+      <c r="E98">
+        <v>91.14439999999999</v>
+      </c>
+      <c r="F98">
+        <v>92.53439999999999</v>
+      </c>
+      <c r="G98">
+        <v>1.8</v>
+      </c>
+      <c r="H98">
+        <v>95</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>3.31</v>
+      </c>
+      <c r="K98">
+        <v>2.8</v>
+      </c>
+      <c r="L98">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M98">
+        <v>16.99856928</v>
+      </c>
+      <c r="N98">
+        <v>-16.48856928</v>
+      </c>
+      <c r="O98">
+        <v>-5.111456476799999</v>
+      </c>
+      <c r="P98">
+        <v>-11.3771128032</v>
+      </c>
+      <c r="Q98">
+        <v>-8.577112803199999</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>0.9556118464300493</v>
+      </c>
+      <c r="T98">
+        <v>13.25324783669528</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.009300782753876571</v>
+      </c>
+      <c r="W98">
+        <v>0.1819914462081129</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.03000252501250511</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2146802622169904</v>
+      </c>
+      <c r="C99">
+        <v>-74.05910381501825</v>
+      </c>
+      <c r="D99">
+        <v>17.63919618498176</v>
+      </c>
+      <c r="E99">
+        <v>92.1083</v>
+      </c>
+      <c r="F99">
+        <v>93.4983</v>
+      </c>
+      <c r="G99">
+        <v>1.8</v>
+      </c>
+      <c r="H99">
+        <v>95</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>3.31</v>
+      </c>
+      <c r="K99">
+        <v>2.8</v>
+      </c>
+      <c r="L99">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M99">
+        <v>17.17563771</v>
+      </c>
+      <c r="N99">
+        <v>-16.66563771</v>
+      </c>
+      <c r="O99">
+        <v>-5.166347690099999</v>
+      </c>
+      <c r="P99">
+        <v>-11.4992900199</v>
+      </c>
+      <c r="Q99">
+        <v>-8.699290019899998</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.271049128573399</v>
+      </c>
+      <c r="T99">
+        <v>17.67099711559371</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.009204898395589182</v>
+      </c>
+      <c r="W99">
+        <v>0.1820090601647303</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.02969322063093294</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2164242622169904</v>
+      </c>
+      <c r="C100">
+        <v>-75.17152701465372</v>
+      </c>
+      <c r="D100">
+        <v>17.49067298534627</v>
+      </c>
+      <c r="E100">
+        <v>93.0722</v>
+      </c>
+      <c r="F100">
+        <v>94.4622</v>
+      </c>
+      <c r="G100">
+        <v>1.8</v>
+      </c>
+      <c r="H100">
+        <v>95</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>3.31</v>
+      </c>
+      <c r="K100">
+        <v>2.8</v>
+      </c>
+      <c r="L100">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M100">
+        <v>17.35270614</v>
+      </c>
+      <c r="N100">
+        <v>-16.84270614</v>
+      </c>
+      <c r="O100">
+        <v>-5.221238903399999</v>
+      </c>
+      <c r="P100">
+        <v>-11.6214672366</v>
+      </c>
+      <c r="Q100">
+        <v>-8.821467236599997</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>1.901923692860099</v>
+      </c>
+      <c r="T100">
+        <v>26.50649567339057</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.009110970860940313</v>
+      </c>
+      <c r="W100">
+        <v>0.1820263146528453</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.02939022858367846</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2181682622169904</v>
+      </c>
+      <c r="C101">
+        <v>-76.28146994794895</v>
+      </c>
+      <c r="D101">
+        <v>17.34463005205106</v>
+      </c>
+      <c r="E101">
+        <v>94.0361</v>
+      </c>
+      <c r="F101">
+        <v>95.42610000000001</v>
+      </c>
+      <c r="G101">
+        <v>1.8</v>
+      </c>
+      <c r="H101">
+        <v>95</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>3.31</v>
+      </c>
+      <c r="K101">
+        <v>2.8</v>
+      </c>
+      <c r="L101">
+        <v>0.5100000000000002</v>
+      </c>
+      <c r="M101">
+        <v>17.52977457</v>
+      </c>
+      <c r="N101">
+        <v>-17.01977457</v>
+      </c>
+      <c r="O101">
+        <v>-5.2761301167</v>
+      </c>
+      <c r="P101">
+        <v>-11.7436444533</v>
+      </c>
+      <c r="Q101">
+        <v>-8.943644453299999</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>3.794547385720197</v>
+      </c>
+      <c r="T101">
+        <v>53.01299134678112</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.009018940852243947</v>
+      </c>
+      <c r="W101">
+        <v>0.1820432205654428</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.02909335758788378</v>
+      </c>
+      <c r="Z101">
         <v>0</v>
       </c>
     </row>
